--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748D0F0-9AD0-E44B-A9B4-7EC8F3B4BD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B931D177-C367-AF47-8B50-6992C951BECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -534,9 +534,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares (5% dilution)</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -550,17 +547,24 @@
   </si>
   <si>
     <t>Share Dilution (3yr)</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -887,12 +891,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -950,12 +963,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,6 +1018,11 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1029,6 +1041,13 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2214,10 +2233,8 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>-0.1</v>
-    <v>-2.245E-3</v>
-    <v>-0.24</v>
-    <v>-5.4010000000000004E-3</v>
+    <v>2.1</v>
+    <v>5.2005999999999997E-2</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2225,23 +2242,22 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>45.2</v>
+    <v>42.884999999999998</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45037.994893657029</v>
-    <v>43.12</v>
-    <v>35636960000</v>
+    <v>45071.998140705466</v>
+    <v>41.43</v>
+    <v>34065230255</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>44</v>
-    <v>44.54</v>
-    <v>44.44</v>
-    <v>44.2</v>
-    <v>801911900</v>
+    <v>42.4</v>
+    <v>40.380000000000003</v>
+    <v>42.48</v>
+    <v>801912200</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>2771614</v>
-    <v>2190992</v>
+    <v>7</v>
+    <v>2940762</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2268,8 +2284,6 @@
     <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2288,7 +2302,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2305,7 +2318,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="39">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2316,16 +2329,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2384,19 +2394,13 @@
       <v>7</v>
       <v>8</v>
       <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2437,9 +2441,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2447,9 +2448,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2805,10 +2803,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I95" sqref="I95"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2899,19 +2897,19 @@
         <v>1869000000</v>
       </c>
       <c r="F3" s="29">
-        <v>2252000000</v>
+        <v>2100000000</v>
       </c>
       <c r="G3" s="29">
-        <v>2944000000</v>
+        <v>2791000000</v>
       </c>
       <c r="H3" s="29">
-        <v>4059000000</v>
+        <v>3984000000</v>
       </c>
       <c r="I3" s="29">
-        <v>5779000000</v>
+        <v>5668000000</v>
       </c>
       <c r="J3" s="29">
-        <v>8879000000</v>
+        <v>9152000000</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>109</v>
@@ -2945,23 +2943,23 @@
       </c>
       <c r="F4" s="16">
         <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
-        <v>0.20492241840556447</v>
+        <v>0.12359550561797761</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.3072824156305507</v>
+        <v>0.32904761904761903</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.37873641304347827</v>
+        <v>0.42744536008599066</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.42374969204237489</v>
+        <v>0.42269076305220876</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.53642498702197616</v>
+        <v>0.6146788990825689</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -3279,7 +3277,7 @@
         <v>959000000</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>121</v>
@@ -3311,20 +3309,20 @@
         <f>(E35+D35+C35)/3</f>
         <v>0</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="69">
         <f>M101/E3</f>
-        <v>19.067394328517924</v>
-      </c>
-      <c r="M16" s="31">
+        <v>18.226447434456929</v>
+      </c>
+      <c r="M16" s="69">
         <f>M101/E28</f>
-        <v>-434.59707317073173</v>
-      </c>
-      <c r="N16" s="32">
+        <v>-415.42963725609758</v>
+      </c>
+      <c r="N16" s="70">
         <f>M101/E106</f>
-        <v>81.924045977011488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>78.310874149425288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3341,7 +3339,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3360,8 +3358,14 @@
       <c r="K18" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3377,12 +3381,35 @@
       <c r="E19" s="10">
         <v>559000000</v>
       </c>
-      <c r="K19" s="33">
+      <c r="F19" s="58">
+        <v>603400000</v>
+      </c>
+      <c r="G19" s="58">
+        <v>876000000</v>
+      </c>
+      <c r="H19" s="58">
+        <v>1380000000</v>
+      </c>
+      <c r="I19" s="58">
+        <v>2243000000</v>
+      </c>
+      <c r="J19" s="58">
+        <v>4063000000</v>
+      </c>
+      <c r="K19" s="31">
         <f>E40-E56-E61</f>
         <v>1024000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="69">
+        <f>M101/F3</f>
+        <v>16.221538216666666</v>
+      </c>
+      <c r="M19" s="69">
+        <f>M101/F28</f>
+        <v>66.005096405735316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3399,8 +3426,28 @@
         <f>(E19/D19)-1</f>
         <v>0.18432203389830515</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="16">
+        <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
+        <v>7.9427549194990954E-2</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.45177328471992051</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.57534246575342474</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.62536231884057969</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.81141328577797589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3416,8 +3463,28 @@
       <c r="E21" s="2">
         <v>0.29909999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="59">
+        <f>F19/F3</f>
+        <v>0.28733333333333333</v>
+      </c>
+      <c r="G21" s="59">
+        <f t="shared" ref="G21:J21" si="4">G19/G3</f>
+        <v>0.31386599785023289</v>
+      </c>
+      <c r="H21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.34638554216867468</v>
+      </c>
+      <c r="I21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.39573041637261819</v>
+      </c>
+      <c r="J21" s="59">
+        <f t="shared" si="4"/>
+        <v>0.44394667832167833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3434,7 +3501,7 @@
         <v>-37000000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3451,7 +3518,7 @@
         <v>-1.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3468,7 +3535,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3485,7 +3552,7 @@
         <v>-32000000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3502,7 +3569,7 @@
         <v>-1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3519,7 +3586,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3535,8 +3602,23 @@
       <c r="E28" s="11">
         <v>-82000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="60">
+        <v>516100000</v>
+      </c>
+      <c r="G28" s="60">
+        <v>682400000</v>
+      </c>
+      <c r="H28" s="60">
+        <v>1099000000</v>
+      </c>
+      <c r="I28" s="60">
+        <v>1745000000</v>
+      </c>
+      <c r="J28" s="60">
+        <v>2900000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -3553,8 +3635,28 @@
         <f>(E28/D28)-1</f>
         <v>9.3333333333333268E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" s="16">
+        <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
+        <v>-7.2939024390243903</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.32222437512110047</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.61049237983587346</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.58780709736123748</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.66189111747851004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3570,8 +3672,28 @@
       <c r="E30" s="2">
         <v>-4.3900000000000002E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F30" s="61">
+        <f>F28/F3</f>
+        <v>0.24576190476190476</v>
+      </c>
+      <c r="G30" s="61">
+        <f t="shared" ref="G30:J30" si="6">G28/G3</f>
+        <v>0.24450017914725905</v>
+      </c>
+      <c r="H30" s="61">
+        <f t="shared" si="6"/>
+        <v>0.27585341365461846</v>
+      </c>
+      <c r="I30" s="61">
+        <f t="shared" si="6"/>
+        <v>0.30786873676781934</v>
+      </c>
+      <c r="J30" s="61">
+        <f t="shared" si="6"/>
+        <v>0.31687062937062938</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3587,8 +3709,23 @@
       <c r="E31" s="12">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F31" s="62">
+        <v>0.64</v>
+      </c>
+      <c r="G31" s="62">
+        <v>0.85</v>
+      </c>
+      <c r="H31" s="62">
+        <v>1.37</v>
+      </c>
+      <c r="I31" s="62">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J31" s="62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3649,11 +3786,11 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:E35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4410,19 +4547,19 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:E80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="8">B79/B3</f>
         <v>8.6461888509670085E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.790072388831438E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.9985569985569984E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.3097913322632425E-2</v>
       </c>
     </row>
@@ -4476,10 +4613,10 @@
       <c r="E83" s="1">
         <v>-16000000</v>
       </c>
-      <c r="L83" s="62" t="s">
+      <c r="L83" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="M83" s="63"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4497,10 +4634,10 @@
       <c r="E84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L84" s="64" t="s">
+      <c r="L84" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="M84" s="65"/>
+      <c r="M84" s="68"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4590,10 +4727,10 @@
       <c r="E88" s="1">
         <v>-111000000</v>
       </c>
-      <c r="L88" s="34" t="s">
+      <c r="L88" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="M88" s="35">
+      <c r="M88" s="33">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4603,19 +4740,19 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:E89" si="5">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
         <v>5.0056882821387941E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.4105480868665978E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.10317460317460317</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.93900481540931E-2</v>
       </c>
       <c r="L89" s="24" t="s">
@@ -4666,10 +4803,10 @@
       <c r="E91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L91" s="34" t="s">
+      <c r="L91" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="M91" s="35">
+      <c r="M91" s="33">
         <f>M89/M90</f>
         <v>-1.5625</v>
       </c>
@@ -4690,10 +4827,10 @@
       <c r="E92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L92" s="36" t="s">
+      <c r="L92" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="M92" s="37">
+      <c r="M92" s="35">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -4714,10 +4851,10 @@
       <c r="E93" s="1">
         <v>1298000000</v>
       </c>
-      <c r="L93" s="64" t="s">
+      <c r="L93" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="M93" s="65"/>
+      <c r="M93" s="68"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4738,7 +4875,7 @@
       <c r="L94" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="M94" s="38">
+      <c r="M94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -4761,7 +4898,7 @@
       <c r="L95" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="M95" s="39">
+      <c r="M95" s="37">
         <v>1.53</v>
       </c>
     </row>
@@ -4784,7 +4921,7 @@
       <c r="L96" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="M96" s="38">
+      <c r="M96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4804,10 +4941,10 @@
       <c r="E97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L97" s="36" t="s">
+      <c r="L97" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="M97" s="37">
+      <c r="M97" s="35">
         <f>(M94)+((M95)*(M96-M94))</f>
         <v>0.10681650000000001</v>
       </c>
@@ -4828,10 +4965,10 @@
       <c r="E98" s="1">
         <v>-337000000</v>
       </c>
-      <c r="L98" s="64" t="s">
+      <c r="L98" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="M98" s="65"/>
+      <c r="M98" s="68"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4873,10 +5010,10 @@
       <c r="E100" s="10">
         <v>-1317000000</v>
       </c>
-      <c r="L100" s="34" t="s">
+      <c r="L100" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="M100" s="35">
+      <c r="M100" s="33">
         <f>M99/M103</f>
         <v>0</v>
       </c>
@@ -4900,9 +5037,9 @@
       <c r="L101" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="M101" s="40" cm="1">
+      <c r="M101" s="38" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>35636960000</v>
+        <v>34065230255</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4921,10 +5058,10 @@
       <c r="E102" s="10">
         <v>410000000</v>
       </c>
-      <c r="L102" s="34" t="s">
+      <c r="L102" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="M102" s="35">
+      <c r="M102" s="33">
         <f>M101/M103</f>
         <v>1</v>
       </c>
@@ -4945,12 +5082,12 @@
       <c r="E103" s="1">
         <v>625000000</v>
       </c>
-      <c r="L103" s="36" t="s">
+      <c r="L103" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="M103" s="41">
+      <c r="M103" s="39">
         <f>M99+M101</f>
-        <v>35636960000</v>
+        <v>34065230255</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4969,10 +5106,10 @@
       <c r="E104" s="11">
         <v>1035000000</v>
       </c>
-      <c r="L104" s="64" t="s">
+      <c r="L104" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="M104" s="65"/>
+      <c r="M104" s="68"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -4991,11 +5128,11 @@
         <f>(E106/D106)-1</f>
         <v>-4.6052631578947345E-2</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
       <c r="K105" s="15"/>
       <c r="L105" s="26" t="s">
         <v>108</v>
@@ -5021,35 +5158,35 @@
       <c r="E106" s="1">
         <v>435000000</v>
       </c>
-      <c r="F106" s="42">
+      <c r="F106" s="40">
         <f>E106*(1+$M$106)</f>
-        <v>596047085.57452321</v>
-      </c>
-      <c r="G106" s="42">
-        <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
-        <v>816717536.14225972</v>
-      </c>
-      <c r="H106" s="42">
-        <f t="shared" si="6"/>
-        <v>1119085303.8050556</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" si="6"/>
-        <v>1533396629.5224903</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="6"/>
-        <v>2101095613.9233959</v>
-      </c>
-      <c r="K106" s="43" t="s">
+        <v>601818858.77911377</v>
+      </c>
+      <c r="G106" s="40">
+        <f t="shared" ref="G106:J106" si="10">F106*(1+$M$106)</f>
+        <v>832611353.52228701</v>
+      </c>
+      <c r="H106" s="40">
+        <f t="shared" si="10"/>
+        <v>1151910838.1225655</v>
+      </c>
+      <c r="I106" s="40">
+        <f t="shared" si="10"/>
+        <v>1593659002.3315282</v>
+      </c>
+      <c r="J106" s="40">
+        <f t="shared" si="10"/>
+        <v>2204813889.807405</v>
+      </c>
+      <c r="K106" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="L106" s="44" t="s">
+      <c r="L106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="M106" s="45">
+      <c r="M106" s="43">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.37022318522878889</v>
+        <v>0.38349162937727299</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5058,139 +5195,139 @@
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="46">
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="44">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>26322600016.762878</v>
-      </c>
-      <c r="K107" s="47" t="s">
+        <v>27621986238.137657</v>
+      </c>
+      <c r="K107" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="L107" s="48" t="s">
+      <c r="L107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="M107" s="49">
+      <c r="M107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="46">
-        <f t="shared" ref="F108:H108" si="7">F107+F106</f>
-        <v>596047085.57452321</v>
-      </c>
-      <c r="G108" s="46">
-        <f t="shared" si="7"/>
-        <v>816717536.14225972</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="7"/>
-        <v>1119085303.8050556</v>
-      </c>
-      <c r="I108" s="46">
+      <c r="F108" s="44">
+        <f t="shared" ref="F108:H108" si="11">F107+F106</f>
+        <v>601818858.77911377</v>
+      </c>
+      <c r="G108" s="44">
+        <f t="shared" si="11"/>
+        <v>832611353.52228701</v>
+      </c>
+      <c r="H108" s="44">
+        <f t="shared" si="11"/>
+        <v>1151910838.1225655</v>
+      </c>
+      <c r="I108" s="44">
         <f>I107+I106</f>
-        <v>1533396629.5224903</v>
-      </c>
-      <c r="J108" s="46">
+        <v>1593659002.3315282</v>
+      </c>
+      <c r="J108" s="44">
         <f>J107+J106</f>
-        <v>28423695630.686275</v>
-      </c>
-      <c r="K108" s="47" t="s">
+        <v>29826800127.945061</v>
+      </c>
+      <c r="K108" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="L108" s="50" t="s">
+      <c r="L108" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="M108" s="51">
+      <c r="M108" s="49">
         <f>M105</f>
         <v>0.10681650000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="60" t="s">
+      <c r="F109" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="G109" s="61"/>
+      <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="52" t="s">
+      <c r="F110" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="G110" s="40">
+      <c r="G110" s="38">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>20164387538.642956</v>
+        <v>21091659491.498589</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="52" t="s">
+      <c r="F111" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="G111" s="40">
+      <c r="G111" s="38">
         <f>E40</f>
         <v>1024000000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="52" t="s">
+      <c r="F112" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G112" s="40">
+      <c r="G112" s="38">
         <f>M99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="52" t="s">
+      <c r="F113" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="G113" s="40">
+      <c r="G113" s="38">
         <f>G110+G111-G112</f>
-        <v>21188387538.642956</v>
+        <v>22115659491.498589</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="52" t="s">
+      <c r="F114" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G114" s="51" cm="1">
+        <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>801912200</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F115" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="G114" s="53" cm="1">
-        <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>801911900</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="54" t="s">
+      <c r="G115" s="53">
+        <f>G113/G114</f>
+        <v>27.578654485489295</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="G115" s="55">
-        <f>G113/G114</f>
-        <v>26.422338337469434</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="52" t="s">
+      <c r="G116" s="54" cm="1">
+        <f t="array" ref="G116">_FV(A1,"Price")</f>
+        <v>42.48</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G116" s="56" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>44.44</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="57" t="s">
+      <c r="G117" s="56">
+        <f>G115/G116-1</f>
+        <v>-0.35078496973895257</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="G117" s="58">
-        <f>G115/G116-1</f>
-        <v>-0.40543793120005767</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="G118" s="59" t="str">
+      <c r="G118" s="57" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B931D177-C367-AF47-8B50-6992C951BECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A3729-1C7B-334F-9F8A-ADC4769E84CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -905,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1023,6 +1023,12 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,13 +1047,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2233,8 +2232,10 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>2.1</v>
-    <v>5.2005999999999997E-2</v>
+    <v>2.66</v>
+    <v>6.2618000000000007E-2</v>
+    <v>0.25</v>
+    <v>5.5379999999999995E-3</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2242,22 +2243,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>42.884999999999998</v>
+    <v>46.48</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45071.998140705466</v>
-    <v>41.43</v>
-    <v>34065230255</v>
+    <v>45072.998805856252</v>
+    <v>42.5</v>
+    <v>36198310000</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>42.4</v>
-    <v>40.380000000000003</v>
+    <v>42.5</v>
     <v>42.48</v>
+    <v>45.14</v>
+    <v>45.39</v>
     <v>801912200</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>7</v>
-    <v>2940762</v>
+    <v>3138881</v>
+    <v>2947706</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2284,6 +2286,8 @@
     <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2302,6 +2306,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2318,7 +2323,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="39">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2329,13 +2334,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2394,13 +2402,19 @@
       <v>7</v>
       <v>8</v>
       <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2441,6 +2455,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2448,6 +2465,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2803,10 +2823,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3309,17 +3329,17 @@
         <f>(E35+D35+C35)/3</f>
         <v>0</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="63">
         <f>M101/E3</f>
-        <v>18.226447434456929</v>
-      </c>
-      <c r="M16" s="69">
+        <v>19.367742108079188</v>
+      </c>
+      <c r="M16" s="63">
         <f>M101/E28</f>
-        <v>-415.42963725609758</v>
-      </c>
-      <c r="N16" s="70">
+        <v>-441.44280487804878</v>
+      </c>
+      <c r="N16" s="64">
         <f>M101/E106</f>
-        <v>78.310874149425288</v>
+        <v>83.214505747126438</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3400,13 +3420,13 @@
         <f>E40-E56-E61</f>
         <v>1024000000</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="63">
         <f>M101/F3</f>
-        <v>16.221538216666666</v>
-      </c>
-      <c r="M19" s="69">
+        <v>17.237290476190477</v>
+      </c>
+      <c r="M19" s="63">
         <f>M101/F28</f>
-        <v>66.005096405735316</v>
+        <v>70.138170897112957</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4613,10 +4633,10 @@
       <c r="E83" s="1">
         <v>-16000000</v>
       </c>
-      <c r="L83" s="65" t="s">
+      <c r="L83" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="M83" s="66"/>
+      <c r="M83" s="68"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4634,10 +4654,10 @@
       <c r="E84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L84" s="67" t="s">
+      <c r="L84" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="M84" s="68"/>
+      <c r="M84" s="70"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4851,10 +4871,10 @@
       <c r="E93" s="1">
         <v>1298000000</v>
       </c>
-      <c r="L93" s="67" t="s">
+      <c r="L93" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="M93" s="68"/>
+      <c r="M93" s="70"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4965,10 +4985,10 @@
       <c r="E98" s="1">
         <v>-337000000</v>
       </c>
-      <c r="L98" s="67" t="s">
+      <c r="L98" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="M98" s="68"/>
+      <c r="M98" s="70"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5039,7 +5059,7 @@
       </c>
       <c r="M101" s="38" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>34065230255</v>
+        <v>36198310000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5087,7 +5107,7 @@
       </c>
       <c r="M103" s="39">
         <f>M99+M101</f>
-        <v>34065230255</v>
+        <v>36198310000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5106,10 +5126,10 @@
       <c r="E104" s="11">
         <v>1035000000</v>
       </c>
-      <c r="L104" s="67" t="s">
+      <c r="L104" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="M104" s="68"/>
+      <c r="M104" s="70"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5128,11 +5148,11 @@
         <f>(E106/D106)-1</f>
         <v>-4.6052631578947345E-2</v>
       </c>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
       <c r="K105" s="15"/>
       <c r="L105" s="26" t="s">
         <v>108</v>
@@ -5246,10 +5266,10 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="63" t="s">
+      <c r="F109" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="G109" s="64"/>
+      <c r="G109" s="66"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="50" t="s">
@@ -5311,7 +5331,7 @@
       </c>
       <c r="G116" s="54" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>42.48</v>
+        <v>45.14</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5320,7 +5340,7 @@
       </c>
       <c r="G117" s="56">
         <f>G115/G116-1</f>
-        <v>-0.35078496973895257</v>
+        <v>-0.38904177037019727</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A3729-1C7B-334F-9F8A-ADC4769E84CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC60A952-D2F3-014E-9D53-61DD93161D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -553,6 +547,27 @@
   </si>
   <si>
     <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
   </si>
 </sst>
 </file>
@@ -905,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -986,7 +1001,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1028,6 +1042,11 @@
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1298,11 +1317,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1342,7 +1361,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$E$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2114,6 +2133,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2232,10 +2311,8 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>2.66</v>
-    <v>6.2618000000000007E-2</v>
-    <v>0.25</v>
-    <v>5.5379999999999995E-3</v>
+    <v>0.8</v>
+    <v>2.1852E-2</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2243,23 +2320,22 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>46.48</v>
+    <v>38.08</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45072.998805856252</v>
-    <v>42.5</v>
-    <v>36198310000</v>
+    <v>45099.999782082814</v>
+    <v>36.18</v>
+    <v>30139819160</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>42.5</v>
-    <v>42.48</v>
-    <v>45.14</v>
-    <v>45.39</v>
-    <v>801912200</v>
+    <v>36.5</v>
+    <v>36.61</v>
+    <v>37.409999999999997</v>
+    <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>3138881</v>
-    <v>2947706</v>
+    <v>921</v>
+    <v>3986787</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2286,8 +2362,6 @@
     <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2306,7 +2380,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2323,7 +2396,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="39">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2334,16 +2407,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2402,19 +2472,13 @@
       <v>7</v>
       <v>8</v>
       <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2455,9 +2519,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2465,9 +2526,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2823,10 +2881,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2873,25 +2931,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2920,33 +2978,33 @@
         <v>2100000000</v>
       </c>
       <c r="G3" s="29">
-        <v>2791000000</v>
+        <v>2790000000</v>
       </c>
       <c r="H3" s="29">
-        <v>3984000000</v>
+        <v>3963000000</v>
       </c>
       <c r="I3" s="29">
-        <v>5668000000</v>
+        <v>5641000000</v>
       </c>
       <c r="J3" s="29">
-        <v>9152000000</v>
+        <v>7915000000</v>
       </c>
       <c r="K3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2967,19 +3025,19 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.32904761904761903</v>
+        <v>0.32857142857142851</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.42744536008599066</v>
+        <v>0.4204301075268817</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.42269076305220876</v>
+        <v>0.42341660358314415</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.6146788990825689</v>
+        <v>0.4031200141818827</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -2994,7 +3052,7 @@
         <v>-0.30881754327747363</v>
       </c>
       <c r="N4" s="17">
-        <f>(E105+D105+C105)/3</f>
+        <f>(E106+D106+C106)/3</f>
         <v>0.39680190058479531</v>
       </c>
       <c r="U4" s="16"/>
@@ -3048,16 +3106,16 @@
         <v>922000000</v>
       </c>
       <c r="K6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3089,7 +3147,7 @@
         <v>-4.3900000000000002E-2</v>
       </c>
       <c r="N7" s="21">
-        <f>E106/E3</f>
+        <f>E107/E3</f>
         <v>0.23274478330658105</v>
       </c>
     </row>
@@ -3112,7 +3170,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3133,16 +3191,16 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="K9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3212,21 +3270,21 @@
         <v>170000000</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3268,16 +3326,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3297,16 +3355,16 @@
         <v>959000000</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3329,20 +3387,20 @@
         <f>(E35+D35+C35)/3</f>
         <v>0</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="62">
         <f>M101/E3</f>
-        <v>19.367742108079188</v>
-      </c>
-      <c r="M16" s="63">
+        <v>16.126173975387907</v>
+      </c>
+      <c r="M16" s="62">
         <f>M101/E28</f>
-        <v>-441.44280487804878</v>
-      </c>
-      <c r="N16" s="64">
-        <f>M101/E106</f>
-        <v>83.214505747126438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>-367.55877024390242</v>
+      </c>
+      <c r="N16" s="63">
+        <f>M101/E107</f>
+        <v>69.286940597701147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3359,7 +3417,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3376,16 +3434,19 @@
         <v>567000000</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3401,37 +3462,41 @@
       <c r="E19" s="10">
         <v>559000000</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="57">
         <v>603400000</v>
       </c>
-      <c r="G19" s="58">
-        <v>876000000</v>
-      </c>
-      <c r="H19" s="58">
-        <v>1380000000</v>
-      </c>
-      <c r="I19" s="58">
-        <v>2243000000</v>
-      </c>
-      <c r="J19" s="58">
-        <v>4063000000</v>
+      <c r="G19" s="57">
+        <v>874000000</v>
+      </c>
+      <c r="H19" s="57">
+        <v>1375000000</v>
+      </c>
+      <c r="I19" s="57">
+        <v>2219000000</v>
+      </c>
+      <c r="J19" s="57">
+        <v>2223000000</v>
       </c>
       <c r="K19" s="31">
         <f>E40-E56-E61</f>
         <v>1024000000</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="62">
         <f>M101/F3</f>
-        <v>17.237290476190477</v>
-      </c>
-      <c r="M19" s="63">
+        <v>14.352294838095238</v>
+      </c>
+      <c r="M19" s="62">
         <f>M101/F28</f>
-        <v>70.138170897112957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58.46715646944714</v>
+      </c>
+      <c r="N19" s="63">
+        <f>M101/F105</f>
+        <v>78.000385244110689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3452,22 +3517,22 @@
       </c>
       <c r="G20" s="16">
         <f t="shared" si="3"/>
-        <v>0.45177328471992051</v>
+        <v>0.44845873384156443</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="3"/>
-        <v>0.57534246575342474</v>
+        <v>0.57322654462242562</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="3"/>
-        <v>0.62536231884057969</v>
+        <v>0.61381818181818182</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="3"/>
-        <v>0.81141328577797589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>1.8026137899955774E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3483,28 +3548,28 @@
       <c r="E21" s="2">
         <v>0.29909999999999998</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="58">
         <f>F19/F3</f>
         <v>0.28733333333333333</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="58">
         <f t="shared" ref="G21:J21" si="4">G19/G3</f>
-        <v>0.31386599785023289</v>
-      </c>
-      <c r="H21" s="59">
+        <v>0.31326164874551971</v>
+      </c>
+      <c r="H21" s="58">
         <f t="shared" si="4"/>
-        <v>0.34638554216867468</v>
-      </c>
-      <c r="I21" s="59">
+        <v>0.34695937421145595</v>
+      </c>
+      <c r="I21" s="58">
         <f t="shared" si="4"/>
-        <v>0.39573041637261819</v>
-      </c>
-      <c r="J21" s="59">
+        <v>0.39336996986349937</v>
+      </c>
+      <c r="J21" s="58">
         <f t="shared" si="4"/>
-        <v>0.44394667832167833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>0.28085912823752368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3521,7 +3586,7 @@
         <v>-37000000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3538,7 +3603,7 @@
         <v>-1.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3549,13 +3614,13 @@
         <v>1000000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
         <v>5000000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3572,7 +3637,7 @@
         <v>-32000000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3589,7 +3654,7 @@
         <v>-1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3606,7 +3671,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3622,25 +3687,25 @@
       <c r="E28" s="11">
         <v>-82000000</v>
       </c>
-      <c r="F28" s="60">
-        <v>516100000</v>
-      </c>
-      <c r="G28" s="60">
+      <c r="F28" s="59">
+        <v>515500000</v>
+      </c>
+      <c r="G28" s="59">
         <v>682400000</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="59">
         <v>1099000000</v>
       </c>
-      <c r="I28" s="60">
-        <v>1745000000</v>
-      </c>
-      <c r="J28" s="60">
-        <v>2900000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="59">
+        <v>1736000000</v>
+      </c>
+      <c r="J28" s="59">
+        <v>1685000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3657,11 +3722,11 @@
       </c>
       <c r="F29" s="16">
         <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
-        <v>-7.2939024390243903</v>
+        <v>-7.2865853658536581</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="5"/>
-        <v>0.32222437512110047</v>
+        <v>0.3237633365664403</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="5"/>
@@ -3669,14 +3734,14 @@
       </c>
       <c r="I29" s="16">
         <f t="shared" si="5"/>
-        <v>0.58780709736123748</v>
+        <v>0.57961783439490455</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="5"/>
-        <v>0.66189111747851004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>-2.937788018433185E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3692,28 +3757,28 @@
       <c r="E30" s="2">
         <v>-4.3900000000000002E-2</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="60">
         <f>F28/F3</f>
-        <v>0.24576190476190476</v>
-      </c>
-      <c r="G30" s="61">
+        <v>0.24547619047619049</v>
+      </c>
+      <c r="G30" s="60">
         <f t="shared" ref="G30:J30" si="6">G28/G3</f>
-        <v>0.24450017914725905</v>
-      </c>
-      <c r="H30" s="61">
+        <v>0.24458781362007168</v>
+      </c>
+      <c r="H30" s="60">
         <f t="shared" si="6"/>
-        <v>0.27585341365461846</v>
-      </c>
-      <c r="I30" s="61">
+        <v>0.27731516527882916</v>
+      </c>
+      <c r="I30" s="60">
         <f t="shared" si="6"/>
-        <v>0.30786873676781934</v>
-      </c>
-      <c r="J30" s="61">
+        <v>0.30774685339478813</v>
+      </c>
+      <c r="J30" s="60">
         <f t="shared" si="6"/>
-        <v>0.31687062937062938</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>0.21288692356285535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3729,23 +3794,23 @@
       <c r="E31" s="12">
         <v>-0.1</v>
       </c>
-      <c r="F31" s="62">
+      <c r="F31" s="61">
         <v>0.64</v>
       </c>
-      <c r="G31" s="62">
+      <c r="G31" s="61">
         <v>0.85</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="61">
         <v>1.37</v>
       </c>
-      <c r="I31" s="62">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="J31" s="62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="I31" s="61">
+        <v>2.17</v>
+      </c>
+      <c r="J31" s="61">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3798,7 +3863,7 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3819,16 +3884,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3836,16 +3901,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3853,7 +3918,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>85000000</v>
@@ -3870,16 +3935,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3887,7 +3952,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>85000000</v>
@@ -3904,7 +3969,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>1425000000</v>
@@ -3921,7 +3986,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>128000000</v>
@@ -3938,7 +4003,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>54000000</v>
@@ -3955,7 +4020,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>1692000000</v>
@@ -3972,7 +4037,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>187000000</v>
@@ -3989,7 +4054,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>10895000000</v>
@@ -4006,7 +4071,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>3580000000</v>
@@ -4023,7 +4088,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>14475000000</v>
@@ -4040,16 +4105,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4057,16 +4122,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4074,7 +4139,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>108000000</v>
@@ -4091,7 +4156,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>14770000000</v>
@@ -4108,16 +4173,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4125,7 +4190,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>16462000000</v>
@@ -4142,7 +4207,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>109000000</v>
@@ -4159,13 +4224,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -4176,16 +4241,16 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4193,16 +4258,16 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4210,7 +4275,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>201000000</v>
@@ -4227,7 +4292,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>310000000</v>
@@ -4244,13 +4309,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -4261,16 +4326,16 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4278,7 +4343,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>208000000</v>
@@ -4295,7 +4360,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>102000000</v>
@@ -4312,7 +4377,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>310000000</v>
@@ -4329,16 +4394,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4346,7 +4411,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>620000000</v>
@@ -4363,7 +4428,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>15842000000</v>
@@ -4372,7 +4437,7 @@
         <v>15884000000</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4380,16 +4445,16 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4397,16 +4462,16 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>5000000</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4414,16 +4479,16 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4431,7 +4496,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>15842000000</v>
@@ -4448,7 +4513,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>16462000000</v>
@@ -4465,16 +4530,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4482,16 +4547,16 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4564,7 +4629,7 @@
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:E80" si="8">B79/B3</f>
@@ -4633,31 +4698,31 @@
       <c r="E83" s="1">
         <v>-16000000</v>
       </c>
-      <c r="L83" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="M83" s="68"/>
+      <c r="L83" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="M83" s="70"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L84" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="M84" s="70"/>
+        <v>91</v>
+      </c>
+      <c r="L84" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="M84" s="72"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4676,7 +4741,7 @@
         <v>-52000000</v>
       </c>
       <c r="L85" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M85" s="25">
         <f>E17</f>
@@ -4694,13 +4759,13 @@
         <v>2000000</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <v>34000000</v>
       </c>
       <c r="L86" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M86" s="25">
         <f>E56</f>
@@ -4724,7 +4789,7 @@
         <v>546000000</v>
       </c>
       <c r="L87" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M87" s="25">
         <f>E61</f>
@@ -4748,7 +4813,7 @@
         <v>-111000000</v>
       </c>
       <c r="L88" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M88" s="33">
         <f>0</f>
@@ -4757,7 +4822,7 @@
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
@@ -4776,7 +4841,7 @@
         <v>5.93900481540931E-2</v>
       </c>
       <c r="L89" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M89" s="25">
         <f>E27</f>
@@ -4788,16 +4853,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1">
         <v>-745000000</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="24" t="s">
         <v>19</v>
@@ -4812,19 +4877,19 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M91" s="33">
         <f>M89/M90</f>
@@ -4836,19 +4901,19 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M92" s="35">
         <f>M88*(1-M91)</f>
@@ -4871,10 +4936,10 @@
       <c r="E93" s="1">
         <v>1298000000</v>
       </c>
-      <c r="L93" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="M93" s="70"/>
+      <c r="L93" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M93" s="72"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4893,10 +4958,11 @@
         <v>1187000000</v>
       </c>
       <c r="L94" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M94" s="36">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4904,19 +4970,19 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M95" s="37">
         <v>1.53</v>
@@ -4927,19 +4993,19 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>1034000000</v>
       </c>
       <c r="L96" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M96" s="36">
         <v>8.4000000000000005E-2</v>
@@ -4950,23 +5016,23 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M97" s="35">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10681650000000001</v>
+        <v>0.10878810000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4974,21 +5040,21 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1">
         <v>-337000000</v>
       </c>
-      <c r="L98" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="M98" s="70"/>
+      <c r="L98" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="M98" s="72"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5007,7 +5073,7 @@
         <v>-2014000000</v>
       </c>
       <c r="L99" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M99" s="25">
         <f>M86+M87</f>
@@ -5031,7 +5097,7 @@
         <v>-1317000000</v>
       </c>
       <c r="L100" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M100" s="33">
         <f>M99/M103</f>
@@ -5043,10 +5109,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>-1000000</v>
@@ -5055,11 +5121,11 @@
         <v>-6000000</v>
       </c>
       <c r="L101" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M101" s="38" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>36198310000</v>
+        <v>30139819160</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5079,7 +5145,7 @@
         <v>410000000</v>
       </c>
       <c r="L102" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M102" s="33">
         <f>M101/M103</f>
@@ -5103,11 +5169,11 @@
         <v>625000000</v>
       </c>
       <c r="L103" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M103" s="39">
         <f>M99+M101</f>
-        <v>36198310000</v>
+        <v>30139819160</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5126,163 +5192,189 @@
       <c r="E104" s="11">
         <v>1035000000</v>
       </c>
-      <c r="L104" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="M104" s="70"/>
+      <c r="L104" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="M104" s="72"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.296875</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>1.5333333333333332</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-4.6052631578947345E-2</v>
-      </c>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="15"/>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:D105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>213200000</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>171600000</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>417400000</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-0.2))+E77+E88+E81</f>
+        <v>288400000</v>
+      </c>
+      <c r="F105" s="40">
+        <f>E105*(1+$M$106)</f>
+        <v>386406029.47888219</v>
+      </c>
+      <c r="G105" s="40">
+        <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
+        <v>517717127.66170174</v>
+      </c>
+      <c r="H105" s="40">
+        <f t="shared" si="11"/>
+        <v>693651247.20169818</v>
+      </c>
+      <c r="I105" s="40">
+        <f t="shared" si="11"/>
+        <v>929372483.61401808</v>
+      </c>
+      <c r="J105" s="40">
+        <f t="shared" si="11"/>
+        <v>1245198097.4348829</v>
+      </c>
+      <c r="K105" s="41" t="s">
+        <v>164</v>
+      </c>
       <c r="L105" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10681650000000001</v>
+        <v>0.10878810000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>256000000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>180000000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>456000000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>435000000</v>
-      </c>
-      <c r="F106" s="40">
-        <f>E106*(1+$M$106)</f>
-        <v>601818858.77911377</v>
-      </c>
-      <c r="G106" s="40">
-        <f t="shared" ref="G106:J106" si="10">F106*(1+$M$106)</f>
-        <v>832611353.52228701</v>
-      </c>
-      <c r="H106" s="40">
-        <f t="shared" si="10"/>
-        <v>1151910838.1225655</v>
-      </c>
-      <c r="I106" s="40">
-        <f t="shared" si="10"/>
-        <v>1593659002.3315282</v>
-      </c>
-      <c r="J106" s="40">
-        <f t="shared" si="10"/>
-        <v>2204813889.807405</v>
+      <c r="A106" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.296875</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>1.5333333333333332</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-4.6052631578947345E-2</v>
+      </c>
+      <c r="F106" s="64">
+        <v>659500000</v>
+      </c>
+      <c r="G106" s="64">
+        <v>1336000000</v>
+      </c>
+      <c r="H106" s="64">
+        <v>2274000000</v>
+      </c>
+      <c r="I106" s="64">
+        <v>3472000000</v>
+      </c>
+      <c r="J106" s="64">
+        <v>4522000000</v>
       </c>
       <c r="K106" s="41" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L106" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M106" s="43">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.38349162937727299</v>
+        <v>0.33982673189626295</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
+      <c r="A107" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="1">
+        <v>256000000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>456000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>435000000</v>
+      </c>
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
       <c r="H107" s="41"/>
       <c r="I107" s="41"/>
-      <c r="J107" s="44">
+      <c r="J107" s="65">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>27621986238.137657</v>
-      </c>
-      <c r="K107" s="45" t="s">
+        <v>55318714710.084129</v>
+      </c>
+      <c r="K107" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="L107" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="M107" s="46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F108" s="65">
+        <f t="shared" ref="F108:I108" si="12">F107+F106</f>
+        <v>659500000</v>
+      </c>
+      <c r="G108" s="65">
+        <f t="shared" si="12"/>
+        <v>1336000000</v>
+      </c>
+      <c r="H108" s="65">
+        <f t="shared" si="12"/>
+        <v>2274000000</v>
+      </c>
+      <c r="I108" s="65">
+        <f t="shared" si="12"/>
+        <v>3472000000</v>
+      </c>
+      <c r="J108" s="65">
+        <f>J107+J106</f>
+        <v>59840714710.084129</v>
+      </c>
+      <c r="K108" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="L108" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="M108" s="48">
+        <f>M105</f>
+        <v>0.10878810000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F109" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="L107" s="46" t="s">
+      <c r="G109" s="68"/>
+    </row>
+    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F110" s="49" t="s">
         <v>148</v>
-      </c>
-      <c r="M107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="44">
-        <f t="shared" ref="F108:H108" si="11">F107+F106</f>
-        <v>601818858.77911377</v>
-      </c>
-      <c r="G108" s="44">
-        <f t="shared" si="11"/>
-        <v>832611353.52228701</v>
-      </c>
-      <c r="H108" s="44">
-        <f t="shared" si="11"/>
-        <v>1151910838.1225655</v>
-      </c>
-      <c r="I108" s="44">
-        <f>I107+I106</f>
-        <v>1593659002.3315282</v>
-      </c>
-      <c r="J108" s="44">
-        <f>J107+J106</f>
-        <v>29826800127.945061</v>
-      </c>
-      <c r="K108" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="L108" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="M108" s="49">
-        <f>M105</f>
-        <v>0.10681650000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="G109" s="66"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="50" t="s">
-        <v>151</v>
       </c>
       <c r="G110" s="38">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>21091659491.498589</v>
+        <v>41353861087.203156</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="50" t="s">
-        <v>152</v>
+      <c r="F111" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="G111" s="38">
         <f>E40</f>
@@ -5290,8 +5382,8 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="50" t="s">
-        <v>139</v>
+      <c r="F112" s="49" t="s">
+        <v>137</v>
       </c>
       <c r="G112" s="38">
         <f>M99</f>
@@ -5299,57 +5391,57 @@
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="50" t="s">
-        <v>153</v>
+      <c r="F113" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="G113" s="38">
         <f>G110+G111-G112</f>
-        <v>22115659491.498589</v>
+        <v>42377861087.203156</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="G114" s="51" cm="1">
+      <c r="F114" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="G114" s="50" cm="1">
         <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>801912200</v>
+        <v>805662100</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="52" t="s">
+      <c r="F115" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G115" s="52">
+        <f>G113/G114</f>
+        <v>52.600042979808975</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G116" s="53" cm="1">
+        <f t="array" ref="G116">_FV(A1,"Price")</f>
+        <v>37.409999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G117" s="55">
+        <f>G115/G116-1</f>
+        <v>0.40604231434934457</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="G115" s="53">
-        <f>G113/G114</f>
-        <v>27.578654485489295</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="G116" s="54" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>45.14</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="G117" s="56">
-        <f>G115/G116-1</f>
-        <v>-0.38904177037019727</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G118" s="57" t="str">
+      <c r="G118" s="56" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -5372,8 +5464,9 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1910139/000110465923030588/0001104659-23-030588-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1910139/000110465923030588/0001104659-23-030588-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:MBLY/explorer/revenue_proj" xr:uid="{8EC393B1-700E-914B-97F6-F454F3A17A39}"/>
+    <hyperlink ref="K106" r:id="rId11" xr:uid="{EAEFAA12-ED62-0342-99CF-65C6C584B1C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC60A952-D2F3-014E-9D53-61DD93161D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3430BD21-4F2F-D741-BA23-4D66EE4E23E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,18 +568,25 @@
   </si>
   <si>
     <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -920,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1065,6 +1072,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2151,12 +2164,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2173,14 +2187,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2188,6 +2202,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2311,8 +2326,10 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>0.8</v>
-    <v>2.1852E-2</v>
+    <v>-1.1599999999999999</v>
+    <v>-3.1216000000000001E-2</v>
+    <v>0.18</v>
+    <v>5.0000000000000001E-3</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2320,22 +2337,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>38.08</v>
+    <v>37.67</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45099.999782082814</v>
-    <v>36.18</v>
-    <v>30139819160</v>
+    <v>45103.933865161722</v>
+    <v>35.83</v>
+    <v>29003835600</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>36.5</v>
-    <v>36.61</v>
-    <v>37.409999999999997</v>
+    <v>37.39</v>
+    <v>37.159999999999997</v>
+    <v>36</v>
+    <v>36.18</v>
     <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>921</v>
-    <v>3986787</v>
+    <v>3781662</v>
+    <v>4162960</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2362,6 +2380,8 @@
     <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2380,6 +2400,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2396,7 +2417,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="39">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2407,13 +2428,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2472,13 +2496,19 @@
       <v>7</v>
       <v>8</v>
       <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2519,6 +2549,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2526,6 +2559,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2881,10 +2917,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2987,7 +3023,7 @@
         <v>5641000000</v>
       </c>
       <c r="J3" s="29">
-        <v>7915000000</v>
+        <v>7165000000</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>107</v>
@@ -3037,7 +3073,7 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.4031200141818827</v>
+        <v>0.27016486438574727</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -3389,15 +3425,15 @@
       </c>
       <c r="L16" s="62">
         <f>M101/E3</f>
-        <v>16.126173975387907</v>
+        <v>15.518371107544141</v>
       </c>
       <c r="M16" s="62">
         <f>M101/E28</f>
-        <v>-367.55877024390242</v>
+        <v>-353.70531219512196</v>
       </c>
       <c r="N16" s="63">
         <f>M101/E107</f>
-        <v>69.286940597701147</v>
+        <v>66.675484137931036</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3483,15 +3519,15 @@
       </c>
       <c r="L19" s="62">
         <f>M101/F3</f>
-        <v>14.352294838095238</v>
+        <v>13.811350285714285</v>
       </c>
       <c r="M19" s="62">
         <f>M101/F28</f>
-        <v>58.46715646944714</v>
+        <v>56.26350261881668</v>
       </c>
       <c r="N19" s="63">
         <f>M101/F105</f>
-        <v>78.000385244110689</v>
+        <v>76.580376589196248</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3532,7 +3568,7 @@
         <v>1.8026137899955774E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3566,7 +3602,13 @@
       </c>
       <c r="J21" s="58">
         <f t="shared" si="4"/>
-        <v>0.28085912823752368</v>
+        <v>0.31025819958129797</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3584,6 +3626,14 @@
       </c>
       <c r="E22" s="10">
         <v>-37000000</v>
+      </c>
+      <c r="M22" s="73">
+        <f>(-1*E98)/M101</f>
+        <v>1.1619152881972617E-2</v>
+      </c>
+      <c r="N22" s="74">
+        <f>E107/M101</f>
+        <v>1.499801633132964E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3775,7 +3825,7 @@
       </c>
       <c r="J30" s="60">
         <f t="shared" si="6"/>
-        <v>0.21288692356285535</v>
+        <v>0.23517096999302164</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4962,7 +5012,7 @@
       </c>
       <c r="M94" s="36">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5032,7 +5082,7 @@
       </c>
       <c r="M97" s="35">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10878810000000001</v>
+        <v>0.1087033</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5125,7 +5175,7 @@
       </c>
       <c r="M101" s="38" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>30139819160</v>
+        <v>29003835600</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5173,7 +5223,7 @@
       </c>
       <c r="M103" s="39">
         <f>M99+M101</f>
-        <v>30139819160</v>
+        <v>29003835600</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5219,23 +5269,23 @@
       </c>
       <c r="F105" s="40">
         <f>E105*(1+$M$106)</f>
-        <v>386406029.47888219</v>
+        <v>378737176.43864113</v>
       </c>
       <c r="G105" s="40">
         <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
-        <v>517717127.66170174</v>
+        <v>497371181.75004983</v>
       </c>
       <c r="H105" s="40">
         <f t="shared" si="11"/>
-        <v>693651247.20169818</v>
+        <v>653165592.98877966</v>
       </c>
       <c r="I105" s="40">
         <f t="shared" si="11"/>
-        <v>929372483.61401808</v>
+        <v>857760375.98974025</v>
       </c>
       <c r="J105" s="40">
         <f t="shared" si="11"/>
-        <v>1245198097.4348829</v>
+        <v>1126441549.4566622</v>
       </c>
       <c r="K105" s="41" t="s">
         <v>164</v>
@@ -5245,7 +5295,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10878810000000001</v>
+        <v>0.1087033</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5278,7 +5328,7 @@
         <v>3472000000</v>
       </c>
       <c r="J106" s="64">
-        <v>4522000000</v>
+        <v>3655000000</v>
       </c>
       <c r="K106" s="41" t="s">
         <v>163</v>
@@ -5288,7 +5338,7 @@
       </c>
       <c r="M106" s="43">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.33982673189626295</v>
+        <v>0.31323570193703587</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5313,7 +5363,7 @@
       <c r="I107" s="41"/>
       <c r="J107" s="65">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>55318714710.084129</v>
+        <v>44757793300.861488</v>
       </c>
       <c r="K107" s="44" t="s">
         <v>144</v>
@@ -5344,7 +5394,7 @@
       </c>
       <c r="J108" s="65">
         <f>J107+J106</f>
-        <v>59840714710.084129</v>
+        <v>48412793300.861488</v>
       </c>
       <c r="K108" s="44" t="s">
         <v>141</v>
@@ -5354,7 +5404,7 @@
       </c>
       <c r="M108" s="48">
         <f>M105</f>
-        <v>0.10878810000000001</v>
+        <v>0.1087033</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5369,7 +5419,7 @@
       </c>
       <c r="G110" s="38">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>41353861087.203156</v>
+        <v>34547148540.961838</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5396,7 +5446,7 @@
       </c>
       <c r="G113" s="38">
         <f>G110+G111-G112</f>
-        <v>42377861087.203156</v>
+        <v>35571148540.961838</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5414,7 +5464,7 @@
       </c>
       <c r="G115" s="52">
         <f>G113/G114</f>
-        <v>52.600042979808975</v>
+        <v>44.151448282055014</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5423,7 +5473,7 @@
       </c>
       <c r="G116" s="53" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>37.409999999999997</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5432,7 +5482,7 @@
       </c>
       <c r="G117" s="55">
         <f>G115/G116-1</f>
-        <v>0.40604231434934457</v>
+        <v>0.22642911894597262</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3430BD21-4F2F-D741-BA23-4D66EE4E23E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E317D02-43B8-9648-A404-BAC5E8E16F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -749,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -855,62 +855,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -927,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -972,79 +919,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,29 +948,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,7 +1057,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>MBLY</a:t>
+              <a:t>Mobileye</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1167,10 +1095,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0039800995024876E-2"/>
-          <c:y val="0.10777817679871887"/>
-          <c:w val="0.85760530679933655"/>
-          <c:h val="0.77444048216267358"/>
+          <c:x val="9.0653399668325044E-2"/>
+          <c:y val="0.15950882908190342"/>
+          <c:w val="0.83770480928689872"/>
+          <c:h val="0.70445188337853482"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2117,8 +2045,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2190,7 +2118,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2326,10 +2254,10 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>-1.1599999999999999</v>
-    <v>-3.1216000000000001E-2</v>
-    <v>0.18</v>
-    <v>5.0000000000000001E-3</v>
+    <v>0.7</v>
+    <v>1.8557999999999998E-2</v>
+    <v>-0.32</v>
+    <v>-8.3289999999999996E-3</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2337,23 +2265,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>37.67</v>
+    <v>38.659999999999997</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45103.933865161722</v>
-    <v>35.83</v>
-    <v>29003835600</v>
+    <v>45107.985541481248</v>
+    <v>38.04</v>
+    <v>30953537882</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>37.39</v>
-    <v>37.159999999999997</v>
-    <v>36</v>
-    <v>36.18</v>
+    <v>38.340000000000003</v>
+    <v>37.72</v>
+    <v>38.42</v>
+    <v>38.1</v>
     <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>3781662</v>
-    <v>4162960</v>
+    <v>1663091</v>
+    <v>4375785</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2504,9 +2432,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2917,10 +2845,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2946,19 +2874,19 @@
       <c r="E1" s="8">
         <v>2022</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="24">
         <v>2023</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>2024</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2025</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2026</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -3010,19 +2938,19 @@
       <c r="E3" s="1">
         <v>1869000000</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <v>2100000000</v>
       </c>
-      <c r="G3" s="29">
-        <v>2790000000</v>
-      </c>
-      <c r="H3" s="29">
-        <v>3963000000</v>
-      </c>
-      <c r="I3" s="29">
-        <v>5641000000</v>
-      </c>
-      <c r="J3" s="29">
+      <c r="G3" s="25">
+        <v>2750000000</v>
+      </c>
+      <c r="H3" s="25">
+        <v>3874000000</v>
+      </c>
+      <c r="I3" s="25">
+        <v>5613000000</v>
+      </c>
+      <c r="J3" s="25">
         <v>7165000000</v>
       </c>
       <c r="K3" s="19" t="s">
@@ -3061,19 +2989,19 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.32857142857142851</v>
+        <v>0.30952380952380953</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.4204301075268817</v>
+        <v>0.40872727272727283</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.42341660358314415</v>
+        <v>0.44889003613835832</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27016486438574727</v>
+        <v>0.27650097986816324</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -3419,21 +3347,21 @@
       <c r="E16" s="1">
         <v>1906000000</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="26">
         <f>(E35+D35+C35)/3</f>
         <v>0</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="36">
         <f>M101/E3</f>
-        <v>15.518371107544141</v>
-      </c>
-      <c r="M16" s="62">
+        <v>16.561550498662385</v>
+      </c>
+      <c r="M16" s="36">
         <f>M101/E28</f>
-        <v>-353.70531219512196</v>
-      </c>
-      <c r="N16" s="63">
+        <v>-377.48216929268295</v>
+      </c>
+      <c r="N16" s="37">
         <f>M101/E107</f>
-        <v>66.675484137931036</v>
+        <v>71.157558349425287</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3498,36 +3426,36 @@
       <c r="E19" s="10">
         <v>559000000</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="31">
         <v>603400000</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="31">
         <v>874000000</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="31">
         <v>1375000000</v>
       </c>
-      <c r="I19" s="57">
-        <v>2219000000</v>
-      </c>
-      <c r="J19" s="57">
+      <c r="I19" s="31">
+        <v>2186000000</v>
+      </c>
+      <c r="J19" s="31">
         <v>2223000000</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="27">
         <f>E40-E56-E61</f>
         <v>1024000000</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="36">
         <f>M101/F3</f>
-        <v>13.811350285714285</v>
-      </c>
-      <c r="M19" s="62">
+        <v>14.739779943809523</v>
+      </c>
+      <c r="M19" s="36">
         <f>M101/F28</f>
-        <v>56.26350261881668</v>
-      </c>
-      <c r="N19" s="63">
+        <v>60.220890821011672</v>
+      </c>
+      <c r="N19" s="37">
         <f>M101/F105</f>
-        <v>76.580376589196248</v>
+        <v>81.715099414964371</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,11 +3489,11 @@
       </c>
       <c r="I20" s="16">
         <f t="shared" si="3"/>
-        <v>0.61381818181818182</v>
+        <v>0.5898181818181818</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="3"/>
-        <v>1.8026137899955774E-3</v>
+        <v>1.6925892040256185E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -3584,23 +3512,23 @@
       <c r="E21" s="2">
         <v>0.29909999999999998</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="32">
         <f>F19/F3</f>
         <v>0.28733333333333333</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="32">
         <f t="shared" ref="G21:J21" si="4">G19/G3</f>
-        <v>0.31326164874551971</v>
-      </c>
-      <c r="H21" s="58">
+        <v>0.31781818181818183</v>
+      </c>
+      <c r="H21" s="32">
         <f t="shared" si="4"/>
-        <v>0.34695937421145595</v>
-      </c>
-      <c r="I21" s="58">
+        <v>0.35493030459473413</v>
+      </c>
+      <c r="I21" s="32">
         <f t="shared" si="4"/>
-        <v>0.39336996986349937</v>
-      </c>
-      <c r="J21" s="58">
+        <v>0.38945305540709069</v>
+      </c>
+      <c r="J21" s="32">
         <f t="shared" si="4"/>
         <v>0.31025819958129797</v>
       </c>
@@ -3627,13 +3555,13 @@
       <c r="E22" s="10">
         <v>-37000000</v>
       </c>
-      <c r="M22" s="73">
+      <c r="M22" s="41">
         <f>(-1*E98)/M101</f>
-        <v>1.1619152881972617E-2</v>
-      </c>
-      <c r="N22" s="74">
+        <v>1.0887285365721349E-2</v>
+      </c>
+      <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>1.499801633132964E-2</v>
+        <v>1.4053320872667023E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3737,20 +3665,20 @@
       <c r="E28" s="11">
         <v>-82000000</v>
       </c>
-      <c r="F28" s="59">
-        <v>515500000</v>
-      </c>
-      <c r="G28" s="59">
-        <v>682400000</v>
-      </c>
-      <c r="H28" s="59">
-        <v>1099000000</v>
-      </c>
-      <c r="I28" s="59">
-        <v>1736000000</v>
-      </c>
-      <c r="J28" s="59">
-        <v>1685000000</v>
+      <c r="F28" s="33">
+        <v>514000000</v>
+      </c>
+      <c r="G28" s="33">
+        <v>675000000</v>
+      </c>
+      <c r="H28" s="33">
+        <v>1088000000</v>
+      </c>
+      <c r="I28" s="33">
+        <v>1640000000</v>
+      </c>
+      <c r="J28" s="33">
+        <v>1884000000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3772,23 +3700,23 @@
       </c>
       <c r="F29" s="16">
         <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
-        <v>-7.2865853658536581</v>
+        <v>-7.2682926829268295</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="5"/>
-        <v>0.3237633365664403</v>
+        <v>0.3132295719844358</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="5"/>
-        <v>0.61049237983587346</v>
+        <v>0.61185185185185187</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="5"/>
-        <v>0.57961783439490455</v>
+        <v>0.50735294117647056</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="5"/>
-        <v>-2.937788018433185E-2</v>
+        <v>0.14878048780487796</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3807,25 +3735,25 @@
       <c r="E30" s="2">
         <v>-4.3900000000000002E-2</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="34">
         <f>F28/F3</f>
-        <v>0.24547619047619049</v>
-      </c>
-      <c r="G30" s="60">
+        <v>0.24476190476190476</v>
+      </c>
+      <c r="G30" s="34">
         <f t="shared" ref="G30:J30" si="6">G28/G3</f>
-        <v>0.24458781362007168</v>
-      </c>
-      <c r="H30" s="60">
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="H30" s="34">
         <f t="shared" si="6"/>
-        <v>0.27731516527882916</v>
-      </c>
-      <c r="I30" s="60">
+        <v>0.28084667010841508</v>
+      </c>
+      <c r="I30" s="34">
         <f t="shared" si="6"/>
-        <v>0.30774685339478813</v>
-      </c>
-      <c r="J30" s="60">
+        <v>0.29217887047924462</v>
+      </c>
+      <c r="J30" s="34">
         <f t="shared" si="6"/>
-        <v>0.23517096999302164</v>
+        <v>0.26294487090020935</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3844,20 +3772,20 @@
       <c r="E31" s="12">
         <v>-0.1</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="35">
         <v>0.64</v>
       </c>
-      <c r="G31" s="61">
-        <v>0.85</v>
-      </c>
-      <c r="H31" s="61">
-        <v>1.37</v>
-      </c>
-      <c r="I31" s="61">
-        <v>2.17</v>
-      </c>
-      <c r="J31" s="61">
-        <v>2.1</v>
+      <c r="G31" s="35">
+        <v>0.84</v>
+      </c>
+      <c r="H31" s="35">
+        <v>1.35</v>
+      </c>
+      <c r="I31" s="35">
+        <v>2.04</v>
+      </c>
+      <c r="J31" s="35">
+        <v>2.34</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4748,10 +4676,10 @@
       <c r="E83" s="1">
         <v>-16000000</v>
       </c>
-      <c r="L83" s="69" t="s">
+      <c r="L83" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="M83" s="70"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4769,10 +4697,10 @@
       <c r="E84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L84" s="71" t="s">
+      <c r="L84" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="M84" s="72"/>
+      <c r="M84" s="67"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4790,10 +4718,10 @@
       <c r="E85" s="1">
         <v>-52000000</v>
       </c>
-      <c r="L85" s="24" t="s">
+      <c r="L85" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="M85" s="25">
+      <c r="M85" s="44">
         <f>E17</f>
         <v>24000000</v>
       </c>
@@ -4814,10 +4742,10 @@
       <c r="E86" s="1">
         <v>34000000</v>
       </c>
-      <c r="L86" s="24" t="s">
+      <c r="L86" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="M86" s="25">
+      <c r="M86" s="44">
         <f>E56</f>
         <v>0</v>
       </c>
@@ -4838,10 +4766,10 @@
       <c r="E87" s="10">
         <v>546000000</v>
       </c>
-      <c r="L87" s="24" t="s">
+      <c r="L87" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="M87" s="25">
+      <c r="M87" s="44">
         <f>E61</f>
         <v>0</v>
       </c>
@@ -4862,10 +4790,10 @@
       <c r="E88" s="1">
         <v>-111000000</v>
       </c>
-      <c r="L88" s="32" t="s">
+      <c r="L88" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="M88" s="33">
+      <c r="M88" s="46">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4890,10 +4818,10 @@
         <f t="shared" si="9"/>
         <v>5.93900481540931E-2</v>
       </c>
-      <c r="L89" s="24" t="s">
+      <c r="L89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M89" s="25">
+      <c r="M89" s="44">
         <f>E27</f>
         <v>50000000</v>
       </c>
@@ -4914,10 +4842,10 @@
       <c r="E90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L90" s="24" t="s">
+      <c r="L90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="25">
+      <c r="M90" s="44">
         <f>E25</f>
         <v>-32000000</v>
       </c>
@@ -4938,10 +4866,10 @@
       <c r="E91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L91" s="32" t="s">
+      <c r="L91" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="M91" s="33">
+      <c r="M91" s="46">
         <f>M89/M90</f>
         <v>-1.5625</v>
       </c>
@@ -4962,10 +4890,10 @@
       <c r="E92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L92" s="34" t="s">
+      <c r="L92" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="M92" s="35">
+      <c r="M92" s="46">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -4986,10 +4914,10 @@
       <c r="E93" s="1">
         <v>1298000000</v>
       </c>
-      <c r="L93" s="71" t="s">
+      <c r="L93" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="M93" s="72"/>
+      <c r="M93" s="67"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5007,12 +4935,12 @@
       <c r="E94" s="10">
         <v>1187000000</v>
       </c>
-      <c r="L94" s="24" t="s">
+      <c r="L94" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="M94" s="36">
+      <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5031,10 +4959,10 @@
       <c r="E95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L95" s="24" t="s">
+      <c r="L95" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="M95" s="37">
+      <c r="M95" s="48">
         <v>1.53</v>
       </c>
     </row>
@@ -5054,10 +4982,10 @@
       <c r="E96" s="1">
         <v>1034000000</v>
       </c>
-      <c r="L96" s="24" t="s">
+      <c r="L96" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="M96" s="36">
+      <c r="M96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5077,12 +5005,12 @@
       <c r="E97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L97" s="34" t="s">
+      <c r="L97" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="M97" s="35">
+      <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.1087033</v>
+        <v>0.10809380000000002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5101,10 +5029,10 @@
       <c r="E98" s="1">
         <v>-337000000</v>
       </c>
-      <c r="L98" s="71" t="s">
+      <c r="L98" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="M98" s="72"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5122,10 +5050,10 @@
       <c r="E99" s="1">
         <v>-2014000000</v>
       </c>
-      <c r="L99" s="24" t="s">
+      <c r="L99" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="M99" s="25">
+      <c r="M99" s="44">
         <f>M86+M87</f>
         <v>0</v>
       </c>
@@ -5146,10 +5074,10 @@
       <c r="E100" s="10">
         <v>-1317000000</v>
       </c>
-      <c r="L100" s="32" t="s">
+      <c r="L100" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="M100" s="33">
+      <c r="M100" s="46">
         <f>M99/M103</f>
         <v>0</v>
       </c>
@@ -5170,12 +5098,12 @@
       <c r="E101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="L101" s="24" t="s">
+      <c r="L101" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="M101" s="38" cm="1">
+      <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>29003835600</v>
+        <v>30953537882</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5194,10 +5122,10 @@
       <c r="E102" s="10">
         <v>410000000</v>
       </c>
-      <c r="L102" s="32" t="s">
+      <c r="L102" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="M102" s="33">
+      <c r="M102" s="46">
         <f>M101/M103</f>
         <v>1</v>
       </c>
@@ -5218,12 +5146,12 @@
       <c r="E103" s="1">
         <v>625000000</v>
       </c>
-      <c r="L103" s="34" t="s">
+      <c r="L103" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="M103" s="39">
+      <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>29003835600</v>
+        <v>30953537882</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5242,10 +5170,10 @@
       <c r="E104" s="11">
         <v>1035000000</v>
       </c>
-      <c r="L104" s="71" t="s">
+      <c r="L104" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="M104" s="72"/>
+      <c r="M104" s="67"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5267,35 +5195,35 @@
         <f>(E22*(1-0.2))+E77+E88+E81</f>
         <v>288400000</v>
       </c>
-      <c r="F105" s="40">
+      <c r="F105" s="28">
         <f>E105*(1+$M$106)</f>
-        <v>378737176.43864113</v>
-      </c>
-      <c r="G105" s="40">
+        <v>378798264.99154359</v>
+      </c>
+      <c r="G105" s="28">
         <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
-        <v>497371181.75004983</v>
-      </c>
-      <c r="H105" s="40">
+        <v>497531642.02705848</v>
+      </c>
+      <c r="H105" s="28">
         <f t="shared" si="11"/>
-        <v>653165592.98877966</v>
-      </c>
-      <c r="I105" s="40">
+        <v>653481701.72761261</v>
+      </c>
+      <c r="I105" s="28">
         <f t="shared" si="11"/>
-        <v>857760375.98974025</v>
-      </c>
-      <c r="J105" s="40">
+        <v>858313921.00603688</v>
+      </c>
+      <c r="J105" s="28">
         <f t="shared" si="11"/>
-        <v>1126441549.4566622</v>
-      </c>
-      <c r="K105" s="41" t="s">
+        <v>1127350291.5921483</v>
+      </c>
+      <c r="K105" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="L105" s="26" t="s">
+      <c r="L105" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="M105" s="27">
+      <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.1087033</v>
+        <v>0.10809380000000002</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5315,34 +5243,34 @@
         <f>(E107/D107)-1</f>
         <v>-4.6052631578947345E-2</v>
       </c>
-      <c r="F106" s="64">
-        <v>659500000</v>
-      </c>
-      <c r="G106" s="64">
-        <v>1336000000</v>
-      </c>
-      <c r="H106" s="64">
-        <v>2274000000</v>
-      </c>
-      <c r="I106" s="64">
-        <v>3472000000</v>
-      </c>
-      <c r="J106" s="64">
-        <v>3655000000</v>
-      </c>
-      <c r="K106" s="41" t="s">
+      <c r="F106" s="38">
+        <v>658200000</v>
+      </c>
+      <c r="G106" s="38">
+        <v>1327000000</v>
+      </c>
+      <c r="H106" s="38">
+        <v>2229000000</v>
+      </c>
+      <c r="I106" s="38">
+        <v>3566000000</v>
+      </c>
+      <c r="J106" s="38">
+        <v>3676000000</v>
+      </c>
+      <c r="K106" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="L106" s="42" t="s">
+      <c r="L106" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="M106" s="43">
+      <c r="M106" s="54">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.31323570193703587</v>
+        <v>0.31344752077511628</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="40" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="1">
@@ -5357,139 +5285,139 @@
       <c r="E107" s="1">
         <v>435000000</v>
       </c>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="65">
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="39">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>44757793300.861488</v>
-      </c>
-      <c r="K107" s="44" t="s">
+        <v>45345140070.618965</v>
+      </c>
+      <c r="K107" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="45" t="s">
+      <c r="L107" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="M107" s="46">
+      <c r="M107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="65">
+      <c r="F108" s="39">
         <f t="shared" ref="F108:I108" si="12">F107+F106</f>
-        <v>659500000</v>
-      </c>
-      <c r="G108" s="65">
+        <v>658200000</v>
+      </c>
+      <c r="G108" s="39">
         <f t="shared" si="12"/>
-        <v>1336000000</v>
-      </c>
-      <c r="H108" s="65">
+        <v>1327000000</v>
+      </c>
+      <c r="H108" s="39">
         <f t="shared" si="12"/>
-        <v>2274000000</v>
-      </c>
-      <c r="I108" s="65">
+        <v>2229000000</v>
+      </c>
+      <c r="I108" s="39">
         <f t="shared" si="12"/>
-        <v>3472000000</v>
-      </c>
-      <c r="J108" s="65">
+        <v>3566000000</v>
+      </c>
+      <c r="J108" s="39">
         <f>J107+J106</f>
-        <v>48412793300.861488</v>
-      </c>
-      <c r="K108" s="44" t="s">
+        <v>49021140070.618965</v>
+      </c>
+      <c r="K108" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="L108" s="47" t="s">
+      <c r="L108" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="M108" s="48">
+      <c r="M108" s="54">
         <f>M105</f>
-        <v>0.1087033</v>
+        <v>0.10809380000000002</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="67" t="s">
+      <c r="F109" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="G109" s="68"/>
+      <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="49" t="s">
+      <c r="F110" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="G110" s="38">
+      <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>34547148540.961838</v>
+        <v>35020963941.298943</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="49" t="s">
+      <c r="F111" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="G111" s="38">
+      <c r="G111" s="49">
         <f>E40</f>
         <v>1024000000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="49" t="s">
+      <c r="F112" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="G112" s="38">
+      <c r="G112" s="49">
         <f>M99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="49" t="s">
+      <c r="F113" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="G113" s="38">
+      <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>35571148540.961838</v>
+        <v>36044963941.298943</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="49" t="s">
+      <c r="F114" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="G114" s="50" cm="1">
+      <c r="G114" s="58" cm="1">
         <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>805662100</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="51" t="s">
+      <c r="F115" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G115" s="52">
+      <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>44.151448282055014</v>
+        <v>44.739555132727411</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="49" t="s">
+      <c r="F116" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="G116" s="53" cm="1">
+      <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>36</v>
+        <v>38.42</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="54" t="s">
+      <c r="F117" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G117" s="55">
+      <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>0.22642911894597262</v>
+        <v>0.16448607841560148</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="54" t="s">
+      <c r="F118" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="G118" s="56" t="str">
+      <c r="G118" s="63" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E317D02-43B8-9648-A404-BAC5E8E16F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB802D1-4806-8048-B275-7F0314CA1468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2083,7 +2083,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2097,10 +2096,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2114,14 +2115,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2131,6 +2132,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2254,10 +2256,10 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>0.7</v>
-    <v>1.8557999999999998E-2</v>
-    <v>-0.32</v>
-    <v>-8.3289999999999996E-3</v>
+    <v>0.51</v>
+    <v>1.2718E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2265,23 +2267,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>38.659999999999997</v>
+    <v>41.25</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45107.985541481248</v>
-    <v>38.04</v>
-    <v>30953537882</v>
+    <v>45114.991448946093</v>
+    <v>40.19</v>
+    <v>32717940000</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>38.340000000000003</v>
-    <v>37.72</v>
-    <v>38.42</v>
-    <v>38.1</v>
+    <v>40.369999999999997</v>
+    <v>40.1</v>
+    <v>40.61</v>
+    <v>40.61</v>
     <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>1663091</v>
-    <v>4375785</v>
+    <v>2851989</v>
+    <v>4321554</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2848,7 +2850,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3353,15 +3355,15 @@
       </c>
       <c r="L16" s="36">
         <f>M101/E3</f>
-        <v>16.561550498662385</v>
+        <v>17.505585874799358</v>
       </c>
       <c r="M16" s="36">
         <f>M101/E28</f>
-        <v>-377.48216929268295</v>
+        <v>-398.99926829268293</v>
       </c>
       <c r="N16" s="37">
         <f>M101/E107</f>
-        <v>71.157558349425287</v>
+        <v>75.213655172413795</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3447,15 +3449,15 @@
       </c>
       <c r="L19" s="36">
         <f>M101/F3</f>
-        <v>14.739779943809523</v>
+        <v>15.579971428571428</v>
       </c>
       <c r="M19" s="36">
         <f>M101/F28</f>
-        <v>60.220890821011672</v>
+        <v>63.653579766536964</v>
       </c>
       <c r="N19" s="37">
         <f>M101/F105</f>
-        <v>81.715099414964371</v>
+        <v>86.372993289001485</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3557,11 +3559,11 @@
       </c>
       <c r="M22" s="41">
         <f>(-1*E98)/M101</f>
-        <v>1.0887285365721349E-2</v>
+        <v>1.0300159484368515E-2</v>
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>1.4053320872667023E-2</v>
+        <v>1.3295458088131465E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4940,7 +4942,7 @@
       </c>
       <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5010,7 +5012,7 @@
       </c>
       <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10809380000000002</v>
+        <v>0.10710270000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5103,7 +5105,7 @@
       </c>
       <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>30953537882</v>
+        <v>32717940000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5151,7 +5153,7 @@
       </c>
       <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>30953537882</v>
+        <v>32717940000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5223,7 +5225,7 @@
       </c>
       <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10809380000000002</v>
+        <v>0.10710270000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5291,7 +5293,7 @@
       <c r="I107" s="29"/>
       <c r="J107" s="39">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>45345140070.618965</v>
+        <v>45892522414.000992</v>
       </c>
       <c r="K107" s="30" t="s">
         <v>144</v>
@@ -5322,7 +5324,7 @@
       </c>
       <c r="J108" s="39">
         <f>J107+J106</f>
-        <v>49021140070.618965</v>
+        <v>49568522414.000992</v>
       </c>
       <c r="K108" s="30" t="s">
         <v>141</v>
@@ -5332,7 +5334,7 @@
       </c>
       <c r="M108" s="54">
         <f>M105</f>
-        <v>0.10809380000000002</v>
+        <v>0.10710270000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5347,7 +5349,7 @@
       </c>
       <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>35020963941.298943</v>
+        <v>35497010362.226288</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5374,7 +5376,7 @@
       </c>
       <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>36044963941.298943</v>
+        <v>36521010362.226288</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5392,7 +5394,7 @@
       </c>
       <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>44.739555132727411</v>
+        <v>45.33043115994446</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5401,7 +5403,7 @@
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>38.42</v>
+        <v>40.61</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5410,7 +5412,7 @@
       </c>
       <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>0.16448607841560148</v>
+        <v>0.11623814725300319</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB802D1-4806-8048-B275-7F0314CA1468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB2695-CDC0-6743-8B31-B732FBBAEC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,9 +543,6 @@
     <t>Share Dilution (3yr)</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
@@ -574,6 +571,9 @@
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Shares</t>
   </si>
 </sst>
 </file>
@@ -2081,8 +2081,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2091,21 +2090,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2115,24 +2115,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2256,10 +2244,8 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>0.51</v>
-    <v>1.2718E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>-0.17</v>
+    <v>-4.1860000000000005E-3</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2267,23 +2253,22 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>41.25</v>
+    <v>41.01</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45114.991448946093</v>
-    <v>40.19</v>
-    <v>32717940000</v>
+    <v>45117.988982835159</v>
+    <v>39.46</v>
+    <v>32580975324</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>40.369999999999997</v>
-    <v>40.1</v>
     <v>40.61</v>
     <v>40.61</v>
+    <v>40.44</v>
     <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>2851989</v>
-    <v>4321554</v>
+    <v>333</v>
+    <v>4304845</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2310,8 +2295,6 @@
     <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2330,7 +2313,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2347,7 +2329,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="39">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2358,16 +2340,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2426,19 +2405,13 @@
       <v>7</v>
       <v>8</v>
       <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2479,9 +2452,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2489,9 +2459,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2847,10 +2814,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2944,16 +2911,16 @@
         <v>2100000000</v>
       </c>
       <c r="G3" s="25">
-        <v>2750000000</v>
+        <v>2758000000</v>
       </c>
       <c r="H3" s="25">
-        <v>3874000000</v>
+        <v>3884000000</v>
       </c>
       <c r="I3" s="25">
         <v>5613000000</v>
       </c>
       <c r="J3" s="25">
-        <v>7165000000</v>
+        <v>7164000000</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>107</v>
@@ -2991,19 +2958,19 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.30952380952380953</v>
+        <v>0.31333333333333324</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.40872727272727283</v>
+        <v>0.40826686004350976</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.44889003613835832</v>
+        <v>0.44515962924819763</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27650097986816324</v>
+        <v>0.27632282202031</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -3355,15 +3322,15 @@
       </c>
       <c r="L16" s="36">
         <f>M101/E3</f>
-        <v>17.505585874799358</v>
+        <v>17.432303544141252</v>
       </c>
       <c r="M16" s="36">
         <f>M101/E28</f>
-        <v>-398.99926829268293</v>
+        <v>-397.32896736585366</v>
       </c>
       <c r="N16" s="37">
         <f>M101/E107</f>
-        <v>75.213655172413795</v>
+        <v>74.898793848275858</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3403,13 +3370,13 @@
         <v>122</v>
       </c>
       <c r="L18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3432,10 +3399,10 @@
         <v>603400000</v>
       </c>
       <c r="G19" s="31">
-        <v>874000000</v>
+        <v>876000000</v>
       </c>
       <c r="H19" s="31">
-        <v>1375000000</v>
+        <v>1376000000</v>
       </c>
       <c r="I19" s="31">
         <v>2186000000</v>
@@ -3449,15 +3416,15 @@
       </c>
       <c r="L19" s="36">
         <f>M101/F3</f>
-        <v>15.579971428571428</v>
+        <v>15.514750154285714</v>
       </c>
       <c r="M19" s="36">
         <f>M101/F28</f>
-        <v>63.653579766536964</v>
+        <v>63.387111525291829</v>
       </c>
       <c r="N19" s="37">
         <f>M101/F105</f>
-        <v>86.372993289001485</v>
+        <v>86.018744272881506</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3483,15 +3450,15 @@
       </c>
       <c r="G20" s="16">
         <f t="shared" si="3"/>
-        <v>0.44845873384156443</v>
+        <v>0.45177328471992051</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="3"/>
-        <v>0.57322654462242562</v>
+        <v>0.57077625570776247</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="3"/>
-        <v>0.5898181818181818</v>
+        <v>0.58866279069767447</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="3"/>
@@ -3520,11 +3487,11 @@
       </c>
       <c r="G21" s="32">
         <f t="shared" ref="G21:J21" si="4">G19/G3</f>
-        <v>0.31781818181818183</v>
+        <v>0.31762146482958664</v>
       </c>
       <c r="H21" s="32">
         <f t="shared" si="4"/>
-        <v>0.35493030459473413</v>
+        <v>0.35427394438722964</v>
       </c>
       <c r="I21" s="32">
         <f t="shared" si="4"/>
@@ -3532,13 +3499,13 @@
       </c>
       <c r="J21" s="32">
         <f t="shared" si="4"/>
-        <v>0.31025819958129797</v>
+        <v>0.31030150753768843</v>
       </c>
       <c r="M21" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3559,11 +3526,11 @@
       </c>
       <c r="M22" s="41">
         <f>(-1*E98)/M101</f>
-        <v>1.0300159484368515E-2</v>
+        <v>1.0343459538848028E-2</v>
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>1.3295458088131465E-2</v>
+        <v>1.3351349849848345E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3743,11 +3710,11 @@
       </c>
       <c r="G30" s="34">
         <f t="shared" ref="G30:J30" si="6">G28/G3</f>
-        <v>0.24545454545454545</v>
+        <v>0.24474256707759245</v>
       </c>
       <c r="H30" s="34">
         <f t="shared" si="6"/>
-        <v>0.28084667010841508</v>
+        <v>0.28012358393408859</v>
       </c>
       <c r="I30" s="34">
         <f t="shared" si="6"/>
@@ -3755,7 +3722,7 @@
       </c>
       <c r="J30" s="34">
         <f t="shared" si="6"/>
-        <v>0.26294487090020935</v>
+        <v>0.26298157453936349</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4942,7 +4909,7 @@
       </c>
       <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5012,7 +4979,7 @@
       </c>
       <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10710270000000001</v>
+        <v>0.10706560000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5105,7 +5072,7 @@
       </c>
       <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>32717940000</v>
+        <v>32580975324</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5153,7 +5120,7 @@
       </c>
       <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>32717940000</v>
+        <v>32580975324</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5179,7 +5146,7 @@
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" ref="B105:D105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
@@ -5199,38 +5166,38 @@
       </c>
       <c r="F105" s="28">
         <f>E105*(1+$M$106)</f>
-        <v>378798264.99154359</v>
+        <v>378765995.70718873</v>
       </c>
       <c r="G105" s="28">
         <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
-        <v>497531642.02705848</v>
+        <v>497446877.61462593</v>
       </c>
       <c r="H105" s="28">
         <f t="shared" si="11"/>
-        <v>653481701.72761261</v>
+        <v>653314708.4297359</v>
       </c>
       <c r="I105" s="28">
         <f t="shared" si="11"/>
-        <v>858313921.00603688</v>
+        <v>858021484.21824062</v>
       </c>
       <c r="J105" s="28">
         <f t="shared" si="11"/>
-        <v>1127350291.5921483</v>
+        <v>1126870186.5744863</v>
       </c>
       <c r="K105" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L105" s="51" t="s">
         <v>106</v>
       </c>
       <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10710270000000001</v>
+        <v>0.10706560000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
@@ -5246,34 +5213,34 @@
         <v>-4.6052631578947345E-2</v>
       </c>
       <c r="F106" s="38">
-        <v>658200000</v>
+        <v>659300000</v>
       </c>
       <c r="G106" s="38">
-        <v>1327000000</v>
+        <v>1323000000</v>
       </c>
       <c r="H106" s="38">
-        <v>2229000000</v>
+        <v>2227000000</v>
       </c>
       <c r="I106" s="38">
-        <v>3566000000</v>
+        <v>3554000000</v>
       </c>
       <c r="J106" s="38">
         <v>3676000000</v>
       </c>
       <c r="K106" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L106" s="53" t="s">
         <v>143</v>
       </c>
       <c r="M106" s="54">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.31344752077511628</v>
+        <v>0.31333563005266563</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" s="1">
         <v>256000000</v>
@@ -5293,7 +5260,7 @@
       <c r="I107" s="29"/>
       <c r="J107" s="39">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>45892522414.000992</v>
+        <v>45913269384.492393</v>
       </c>
       <c r="K107" s="30" t="s">
         <v>144</v>
@@ -5308,23 +5275,23 @@
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F108" s="39">
         <f t="shared" ref="F108:I108" si="12">F107+F106</f>
-        <v>658200000</v>
+        <v>659300000</v>
       </c>
       <c r="G108" s="39">
         <f t="shared" si="12"/>
-        <v>1327000000</v>
+        <v>1323000000</v>
       </c>
       <c r="H108" s="39">
         <f t="shared" si="12"/>
-        <v>2229000000</v>
+        <v>2227000000</v>
       </c>
       <c r="I108" s="39">
         <f t="shared" si="12"/>
-        <v>3566000000</v>
+        <v>3554000000</v>
       </c>
       <c r="J108" s="39">
         <f>J107+J106</f>
-        <v>49568522414.000992</v>
+        <v>49589269384.492393</v>
       </c>
       <c r="K108" s="30" t="s">
         <v>141</v>
@@ -5334,7 +5301,7 @@
       </c>
       <c r="M108" s="54">
         <f>M105</f>
-        <v>0.10710270000000001</v>
+        <v>0.10706560000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5349,7 +5316,7 @@
       </c>
       <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>35497010362.226288</v>
+        <v>35503323711.539536</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5376,16 +5343,16 @@
       </c>
       <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>36521010362.226288</v>
+        <v>36527323711.539536</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F114" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="G114" s="58" cm="1">
-        <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>805662100</v>
+        <v>166</v>
+      </c>
+      <c r="G114" s="58">
+        <f>E34*(1+(K16*5))</f>
+        <v>795761905</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5394,7 +5361,7 @@
       </c>
       <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>45.33043115994446</v>
+        <v>45.902327671163818</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5403,7 +5370,7 @@
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>40.61</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5412,7 +5379,7 @@
       </c>
       <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>0.11623814725300319</v>
+        <v>0.13507239542937244</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB2695-CDC0-6743-8B31-B732FBBAEC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB4627-B0BD-9146-A00F-6EC81A834C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2091,6 +2091,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2102,7 +2103,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2121,6 +2122,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2244,8 +2246,10 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>-0.17</v>
-    <v>-4.1860000000000005E-3</v>
+    <v>-0.45</v>
+    <v>-1.1019000000000001E-2</v>
+    <v>0.06</v>
+    <v>1.4860000000000001E-3</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2253,22 +2257,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>41.01</v>
+    <v>41.21</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45117.988982835159</v>
-    <v>39.46</v>
-    <v>32580975324</v>
+    <v>45132.973332349218</v>
+    <v>40.369999999999997</v>
+    <v>32540692219</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>40.61</v>
-    <v>40.61</v>
-    <v>40.44</v>
+    <v>40.549999999999997</v>
+    <v>40.840000000000003</v>
+    <v>40.39</v>
+    <v>40.450000000000003</v>
     <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>333</v>
-    <v>4304845</v>
+    <v>1221503</v>
+    <v>2873857</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2295,6 +2300,8 @@
     <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2313,6 +2320,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2329,7 +2337,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="39">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2340,13 +2348,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2405,13 +2416,19 @@
       <v>7</v>
       <v>8</v>
       <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2452,6 +2469,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2459,6 +2479,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2814,10 +2837,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomRight" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3322,15 +3345,15 @@
       </c>
       <c r="L16" s="36">
         <f>M101/E3</f>
-        <v>17.432303544141252</v>
+        <v>17.410750250936328</v>
       </c>
       <c r="M16" s="36">
         <f>M101/E28</f>
-        <v>-397.32896736585366</v>
+        <v>-396.83770998780489</v>
       </c>
       <c r="N16" s="37">
         <f>M101/E107</f>
-        <v>74.898793848275858</v>
+        <v>74.806189009195407</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3416,15 +3439,15 @@
       </c>
       <c r="L19" s="36">
         <f>M101/F3</f>
-        <v>15.514750154285714</v>
+        <v>15.495567723333334</v>
       </c>
       <c r="M19" s="36">
         <f>M101/F28</f>
-        <v>63.387111525291829</v>
+        <v>63.308739725680937</v>
       </c>
       <c r="N19" s="37">
         <f>M101/F105</f>
-        <v>86.018744272881506</v>
+        <v>85.912390731495648</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,11 +3549,11 @@
       </c>
       <c r="M22" s="41">
         <f>(-1*E98)/M101</f>
-        <v>1.0343459538848028E-2</v>
+        <v>1.0356264019584407E-2</v>
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>1.3351349849848345E-2</v>
+        <v>1.3367877888781061E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4909,7 +4932,7 @@
       </c>
       <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4979,7 +5002,7 @@
       </c>
       <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10706560000000001</v>
+        <v>0.1077864</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5072,7 +5095,7 @@
       </c>
       <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>32580975324</v>
+        <v>32540692219</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5120,7 +5143,7 @@
       </c>
       <c r="M103" s="50">
         <f>M99+M101</f>
-        <v>32580975324</v>
+        <v>32540692219</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5192,7 +5215,7 @@
       </c>
       <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10706560000000001</v>
+        <v>0.1077864</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5260,7 +5283,7 @@
       <c r="I107" s="29"/>
       <c r="J107" s="39">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>45913269384.492393</v>
+        <v>45513514297.034286</v>
       </c>
       <c r="K107" s="30" t="s">
         <v>144</v>
@@ -5291,7 +5314,7 @@
       </c>
       <c r="J108" s="39">
         <f>J107+J106</f>
-        <v>49589269384.492393</v>
+        <v>49189514297.034286</v>
       </c>
       <c r="K108" s="30" t="s">
         <v>141</v>
@@ -5301,7 +5324,7 @@
       </c>
       <c r="M108" s="54">
         <f>M105</f>
-        <v>0.10706560000000001</v>
+        <v>0.1077864</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5316,7 +5339,7 @@
       </c>
       <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>35503323711.539536</v>
+        <v>35155671892.057938</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5343,7 +5366,7 @@
       </c>
       <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>36527323711.539536</v>
+        <v>36179671892.057938</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5361,7 +5384,7 @@
       </c>
       <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>45.902327671163818</v>
+        <v>45.465448477403477</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5370,7 +5393,7 @@
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>40.44</v>
+        <v>40.39</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5379,7 +5402,7 @@
       </c>
       <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>0.13507239542937244</v>
+        <v>0.12566101701915011</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB4627-B0BD-9146-A00F-6EC81A834C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93723CA4-1497-3547-A59D-9C244A1FB5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -564,16 +564,19 @@
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>4Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +703,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -874,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -927,11 +937,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -943,13 +948,8 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -957,55 +957,123 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1095,15 +1163,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0653399668325044E-2"/>
-          <c:y val="0.15950882908190342"/>
-          <c:w val="0.83770480928689872"/>
-          <c:h val="0.70445188337853482"/>
+          <c:x val="9.822296173044924E-2"/>
+          <c:y val="0.15115383770338744"/>
+          <c:w val="0.82856572379367721"/>
+          <c:h val="0.67139811873473942"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1152,12 +1220,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$E$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>879000000</c:v>
                 </c:pt>
@@ -1170,12 +1274,27 @@
                 <c:pt idx="3">
                   <c:v>1869000000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2724000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3823000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5618000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7164000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D82-CA49-A5A0-A197C4CF4966}"/>
+              <c16:uniqueId val="{00000000-BA27-1649-BC1D-19EA498CA640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1184,11 +1303,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1226,30 +1345,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$E$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-222000000</c:v>
+                  <c:v>-328000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>257000000</c:v>
+                  <c:v>-196000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>472000000</c:v>
+                  <c:v>-75000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>559000000</c:v>
+                  <c:v>-82000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>572000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>710000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1103000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1730000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2276000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D82-CA49-A5A0-A197C4CF4966}"/>
+              <c16:uniqueId val="{00000001-BA27-1649-BC1D-19EA498CA640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1300,12 +1470,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$J$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>256000000</c:v>
                 </c:pt>
@@ -1318,12 +1524,27 @@
                 <c:pt idx="3">
                   <c:v>435000000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>564000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>931000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1542000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2546000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2609000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0D82-CA49-A5A0-A197C4CF4966}"/>
+              <c16:uniqueId val="{00000002-BA27-1649-BC1D-19EA498CA640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1335,13 +1556,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="644487728"/>
-        <c:axId val="644354912"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1753567824"/>
+        <c:axId val="1266826928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="644487728"/>
+        <c:axId val="1753567824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1590,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1381,7 +1602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644354912"/>
+        <c:crossAx val="1266826928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1389,7 +1610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="644354912"/>
+        <c:axId val="1266826928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644487728"/>
+        <c:crossAx val="1753567824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1455,10 +1676,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34797048876353143"/>
-          <c:y val="0.91582725935852349"/>
-          <c:w val="0.30405891800838331"/>
-          <c:h val="4.4817722222432639E-2"/>
+          <c:x val="0.34872116027093958"/>
+          <c:y val="0.88808429791295396"/>
+          <c:w val="0.31586872273245381"/>
+          <c:h val="6.2854753274371664E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1565,7 +1786,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1803,7 +2024,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2038,22 +2258,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:colOff>1571624</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A451CE9F-A8F3-1661-AFA2-73A41F8011D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BE0944-C647-33F4-EDCB-D7033CF7022B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,38 +2301,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2246,10 +2466,10 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>-0.45</v>
-    <v>-1.1019000000000001E-2</v>
-    <v>0.06</v>
-    <v>1.4860000000000001E-3</v>
+    <v>-0.84</v>
+    <v>-2.3431E-2</v>
+    <v>-0.2</v>
+    <v>-5.7130000000000002E-3</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2257,23 +2477,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>41.21</v>
+    <v>36.19</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45132.973332349218</v>
-    <v>40.369999999999997</v>
-    <v>32540692219</v>
+    <v>45218.989855555468</v>
+    <v>34.304000000000002</v>
+    <v>28206230121</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>40.549999999999997</v>
-    <v>40.840000000000003</v>
-    <v>40.39</v>
-    <v>40.450000000000003</v>
+    <v>35.799999999999997</v>
+    <v>35.85</v>
+    <v>35.01</v>
+    <v>34.81</v>
     <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>1221503</v>
-    <v>2873857</v>
+    <v>1802254</v>
+    <v>2835919</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2424,9 +2644,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2834,13 +3054,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F125" sqref="F125"/>
+      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2934,13 +3154,13 @@
         <v>2100000000</v>
       </c>
       <c r="G3" s="25">
-        <v>2758000000</v>
+        <v>2724000000</v>
       </c>
       <c r="H3" s="25">
-        <v>3884000000</v>
+        <v>3823000000</v>
       </c>
       <c r="I3" s="25">
-        <v>5613000000</v>
+        <v>5618000000</v>
       </c>
       <c r="J3" s="25">
         <v>7164000000</v>
@@ -2981,19 +3201,19 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.31333333333333324</v>
+        <v>0.29714285714285715</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.40826686004350976</v>
+        <v>0.40345080763582963</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.44515962924819763</v>
+        <v>0.46952654982997655</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27632282202031</v>
+        <v>0.27518689925240292</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -3061,16 +3281,20 @@
       <c r="E6" s="10">
         <v>922000000</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="F6" s="28">
+        <f>F3*F7</f>
+        <v>1036140000</v>
+      </c>
+      <c r="K6" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="67" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3090,21 +3314,24 @@
       <c r="E7" s="2">
         <v>0.49330000000000002</v>
       </c>
+      <c r="F7" s="2">
+        <v>0.49340000000000001</v>
+      </c>
       <c r="K7" s="17">
-        <f>E7</f>
-        <v>0.49330000000000002</v>
+        <f>F7</f>
+        <v>0.49340000000000001</v>
       </c>
       <c r="L7" s="21">
-        <f>E21</f>
-        <v>0.29909999999999998</v>
+        <f>F21</f>
+        <v>0.31142857142857144</v>
       </c>
       <c r="M7" s="21">
-        <f>E30</f>
-        <v>-4.3900000000000002E-2</v>
+        <f>F30</f>
+        <v>0.27238095238095239</v>
       </c>
       <c r="N7" s="21">
-        <f>E107/E3</f>
-        <v>0.23274478330658105</v>
+        <f>F107/F3</f>
+        <v>0.26857142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3343,17 +3570,17 @@
         <f>(E35+D35+C35)/3</f>
         <v>0</v>
       </c>
-      <c r="L16" s="36">
-        <f>M101/E3</f>
-        <v>17.410750250936328</v>
-      </c>
-      <c r="M16" s="36">
-        <f>M101/E28</f>
-        <v>-396.83770998780489</v>
-      </c>
-      <c r="N16" s="37">
-        <f>M101/E107</f>
-        <v>74.806189009195407</v>
+      <c r="L16" s="33">
+        <f>M102/E3</f>
+        <v>15.091615902086678</v>
+      </c>
+      <c r="M16" s="33">
+        <f>M102/E28</f>
+        <v>-343.9784161097561</v>
+      </c>
+      <c r="N16" s="34">
+        <f>M102/E107</f>
+        <v>64.841908324137933</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3418,36 +3645,36 @@
       <c r="E19" s="10">
         <v>559000000</v>
       </c>
-      <c r="F19" s="31">
-        <v>603400000</v>
-      </c>
-      <c r="G19" s="31">
-        <v>876000000</v>
-      </c>
-      <c r="H19" s="31">
+      <c r="F19" s="28">
+        <v>654000000</v>
+      </c>
+      <c r="G19" s="28">
+        <v>882100000</v>
+      </c>
+      <c r="H19" s="28">
         <v>1376000000</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="28">
         <v>2186000000</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="28">
         <v>2223000000</v>
       </c>
       <c r="K19" s="27">
         <f>E40-E56-E61</f>
         <v>1024000000</v>
       </c>
-      <c r="L19" s="36">
-        <f>M101/F3</f>
-        <v>15.495567723333334</v>
-      </c>
-      <c r="M19" s="36">
-        <f>M101/F28</f>
-        <v>63.308739725680937</v>
-      </c>
-      <c r="N19" s="37">
-        <f>M101/F105</f>
-        <v>85.912390731495648</v>
+      <c r="L19" s="33">
+        <f>M102/F3</f>
+        <v>13.431538152857144</v>
+      </c>
+      <c r="M19" s="33">
+        <f>M102/F28</f>
+        <v>49.311591120629373</v>
+      </c>
+      <c r="N19" s="34">
+        <f>M102/F107</f>
+        <v>50.011046313829787</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3469,15 +3696,15 @@
       </c>
       <c r="F20" s="16">
         <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
-        <v>7.9427549194990954E-2</v>
+        <v>0.1699463327370303</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="3"/>
-        <v>0.45177328471992051</v>
+        <v>0.34877675840978584</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="3"/>
-        <v>0.57077625570776247</v>
+        <v>0.55991384196803073</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="3"/>
@@ -3504,31 +3731,34 @@
       <c r="E21" s="2">
         <v>0.29909999999999998</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="29">
         <f>F19/F3</f>
-        <v>0.28733333333333333</v>
-      </c>
-      <c r="G21" s="32">
+        <v>0.31142857142857144</v>
+      </c>
+      <c r="G21" s="29">
         <f t="shared" ref="G21:J21" si="4">G19/G3</f>
-        <v>0.31762146482958664</v>
-      </c>
-      <c r="H21" s="32">
+        <v>0.32382525697503672</v>
+      </c>
+      <c r="H21" s="29">
         <f t="shared" si="4"/>
-        <v>0.35427394438722964</v>
-      </c>
-      <c r="I21" s="32">
+        <v>0.35992675908972011</v>
+      </c>
+      <c r="I21" s="29">
         <f t="shared" si="4"/>
-        <v>0.38945305540709069</v>
-      </c>
-      <c r="J21" s="32">
+        <v>0.38910644357422569</v>
+      </c>
+      <c r="J21" s="29">
         <f t="shared" si="4"/>
         <v>0.31030150753768843</v>
       </c>
+      <c r="L21" s="43" t="s">
+        <v>167</v>
+      </c>
       <c r="M21" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3547,13 +3777,17 @@
       <c r="E22" s="10">
         <v>-37000000</v>
       </c>
-      <c r="M22" s="41">
-        <f>(-1*E98)/M101</f>
-        <v>1.0356264019584407E-2</v>
-      </c>
-      <c r="N22" s="42">
-        <f>E107/M101</f>
-        <v>1.3367877888781061E-2</v>
+      <c r="L22" s="17">
+        <f>SUM(G29:J29)/4</f>
+        <v>0.41970912177976993</v>
+      </c>
+      <c r="M22" s="42">
+        <f>(-1*E98)/M102</f>
+        <v>1.1947715045730199E-2</v>
+      </c>
+      <c r="N22" s="36">
+        <f>F107/M102</f>
+        <v>1.9995582450420865E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3657,20 +3891,20 @@
       <c r="E28" s="11">
         <v>-82000000</v>
       </c>
-      <c r="F28" s="33">
-        <v>514000000</v>
-      </c>
-      <c r="G28" s="33">
-        <v>675000000</v>
-      </c>
-      <c r="H28" s="33">
-        <v>1088000000</v>
-      </c>
-      <c r="I28" s="33">
-        <v>1640000000</v>
-      </c>
-      <c r="J28" s="33">
-        <v>1884000000</v>
+      <c r="F28" s="30">
+        <v>572000000</v>
+      </c>
+      <c r="G28" s="30">
+        <v>710000000</v>
+      </c>
+      <c r="H28" s="30">
+        <v>1103000000</v>
+      </c>
+      <c r="I28" s="30">
+        <v>1730000000</v>
+      </c>
+      <c r="J28" s="30">
+        <v>2276000000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3692,23 +3926,23 @@
       </c>
       <c r="F29" s="16">
         <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
-        <v>-7.2682926829268295</v>
+        <v>-7.975609756097561</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="5"/>
-        <v>0.3132295719844358</v>
+        <v>0.24125874125874125</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="5"/>
-        <v>0.61185185185185187</v>
+        <v>0.55352112676056331</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="5"/>
-        <v>0.50735294117647056</v>
+        <v>0.56844968268359031</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="5"/>
-        <v>0.14878048780487796</v>
+        <v>0.31560693641618487</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3727,25 +3961,25 @@
       <c r="E30" s="2">
         <v>-4.3900000000000002E-2</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="31">
         <f>F28/F3</f>
-        <v>0.24476190476190476</v>
-      </c>
-      <c r="G30" s="34">
+        <v>0.27238095238095239</v>
+      </c>
+      <c r="G30" s="31">
         <f t="shared" ref="G30:J30" si="6">G28/G3</f>
-        <v>0.24474256707759245</v>
-      </c>
-      <c r="H30" s="34">
+        <v>0.26064610866372984</v>
+      </c>
+      <c r="H30" s="31">
         <f t="shared" si="6"/>
-        <v>0.28012358393408859</v>
-      </c>
-      <c r="I30" s="34">
+        <v>0.28851687156683231</v>
+      </c>
+      <c r="I30" s="31">
         <f t="shared" si="6"/>
-        <v>0.29217887047924462</v>
-      </c>
-      <c r="J30" s="34">
+        <v>0.307938768244927</v>
+      </c>
+      <c r="J30" s="31">
         <f t="shared" si="6"/>
-        <v>0.26298157453936349</v>
+        <v>0.3176996091568956</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3764,20 +3998,20 @@
       <c r="E31" s="12">
         <v>-0.1</v>
       </c>
-      <c r="F31" s="35">
-        <v>0.64</v>
-      </c>
-      <c r="G31" s="35">
-        <v>0.84</v>
-      </c>
-      <c r="H31" s="35">
-        <v>1.35</v>
-      </c>
-      <c r="I31" s="35">
-        <v>2.04</v>
-      </c>
-      <c r="J31" s="35">
-        <v>2.34</v>
+      <c r="F31" s="32">
+        <v>0.71</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0.88</v>
+      </c>
+      <c r="H31" s="32">
+        <v>1.37</v>
+      </c>
+      <c r="I31" s="32">
+        <v>2.15</v>
+      </c>
+      <c r="J31" s="32">
+        <v>2.83</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3797,7 +4031,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3813,8 +4047,12 @@
       <c r="E33" s="1">
         <v>795761905</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" cm="1">
+        <f t="array" ref="F33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>805662100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3830,8 +4068,12 @@
       <c r="E34" s="1">
         <v>795761905</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" cm="1">
+        <f t="array" ref="F34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>805662100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -3841,15 +4083,19 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:E35" si="7">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F35" s="23">
+        <f t="shared" si="7"/>
+        <v>1.244115223133231E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -3866,7 +4112,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -3883,7 +4129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3900,7 +4146,7 @@
         <v>1024000000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -3917,7 +4163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -3934,7 +4180,7 @@
         <v>1024000000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -3951,7 +4197,7 @@
         <v>269000000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -3968,7 +4214,7 @@
         <v>113000000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -3985,7 +4231,7 @@
         <v>110000000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4002,7 +4248,7 @@
         <v>1516000000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4019,7 +4265,7 @@
         <v>384000000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4036,7 +4282,7 @@
         <v>10895000000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4053,7 +4299,7 @@
         <v>2527000000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4652,7 +4898,7 @@
         <v>-114000000</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -4668,12 +4914,8 @@
       <c r="E83" s="1">
         <v>-16000000</v>
       </c>
-      <c r="L83" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M83" s="66"/>
-    </row>
-    <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -4689,12 +4931,18 @@
       <c r="E84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L84" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="M84" s="67"/>
-    </row>
-    <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="M84" s="74"/>
+    </row>
+    <row r="85" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -4710,13 +4958,16 @@
       <c r="E85" s="1">
         <v>-52000000</v>
       </c>
-      <c r="L85" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="M85" s="44">
-        <f>E17</f>
-        <v>24000000</v>
-      </c>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="M85" s="75"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4734,12 +4985,18 @@
       <c r="E86" s="1">
         <v>34000000</v>
       </c>
-      <c r="L86" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="M86" s="44">
-        <f>E56</f>
-        <v>0</v>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M86" s="45">
+        <f>E17</f>
+        <v>24000000</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4758,11 +5015,17 @@
       <c r="E87" s="10">
         <v>546000000</v>
       </c>
-      <c r="L87" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="M87" s="44">
-        <f>E61</f>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="M87" s="45">
+        <f>E56</f>
         <v>0</v>
       </c>
     </row>
@@ -4782,11 +5045,17 @@
       <c r="E88" s="1">
         <v>-111000000</v>
       </c>
-      <c r="L88" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="M88" s="46">
-        <f>0</f>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="M88" s="45">
+        <f>E61</f>
         <v>0</v>
       </c>
     </row>
@@ -4810,12 +5079,18 @@
         <f t="shared" si="9"/>
         <v>5.93900481540931E-2</v>
       </c>
-      <c r="L89" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="M89" s="44">
-        <f>E27</f>
-        <v>50000000</v>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="M89" s="46">
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4834,12 +5109,18 @@
       <c r="E90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L90" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M90" s="44">
-        <f>E25</f>
-        <v>-32000000</v>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="M90" s="45">
+        <f>E27</f>
+        <v>50000000</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4858,12 +5139,18 @@
       <c r="E91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L91" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="M91" s="46">
-        <f>M89/M90</f>
-        <v>-1.5625</v>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="45">
+        <f>E25</f>
+        <v>-32000000</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4882,15 +5169,21 @@
       <c r="E92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L92" s="45" t="s">
-        <v>130</v>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="M92" s="46">
-        <f>M88*(1-M91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <f>M90/M91</f>
+        <v>-1.5625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -4906,12 +5199,21 @@
       <c r="E93" s="1">
         <v>1298000000</v>
       </c>
-      <c r="L93" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="M93" s="67"/>
-    </row>
-    <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="M93" s="46">
+        <f>M89*(1-M92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -4927,13 +5229,16 @@
       <c r="E94" s="10">
         <v>1187000000</v>
       </c>
-      <c r="L94" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="M94" s="47">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="M94" s="75"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -4951,11 +5256,18 @@
       <c r="E95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L95" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="M95" s="48">
-        <v>1.53</v>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="M95" s="68">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4974,11 +5286,17 @@
       <c r="E96" s="1">
         <v>1034000000</v>
       </c>
-      <c r="L96" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="M96" s="47">
-        <v>8.4000000000000005E-2</v>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="M96" s="48">
+        <v>1.53</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4997,15 +5315,20 @@
       <c r="E97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L97" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="M97" s="46">
-        <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.1077864</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="M97" s="47">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5021,12 +5344,21 @@
       <c r="E98" s="1">
         <v>-337000000</v>
       </c>
-      <c r="L98" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="M98" s="67"/>
-    </row>
-    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="M98" s="46">
+        <f>(M95)+((M96)*(M97-M95))</f>
+        <v>0.1025394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5042,13 +5374,16 @@
       <c r="E99" s="1">
         <v>-2014000000</v>
       </c>
-      <c r="L99" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M99" s="44">
-        <f>M86+M87</f>
-        <v>0</v>
-      </c>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="M99" s="75"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5066,11 +5401,17 @@
       <c r="E100" s="10">
         <v>-1317000000</v>
       </c>
-      <c r="L100" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="M100" s="46">
-        <f>M99/M103</f>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="M100" s="45">
+        <f>M87+M88</f>
         <v>0</v>
       </c>
     </row>
@@ -5090,12 +5431,18 @@
       <c r="E101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="L101" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="M101" s="49" cm="1">
-        <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>32540692219</v>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M101" s="46">
+        <f>M100/M104</f>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5114,12 +5461,18 @@
       <c r="E102" s="10">
         <v>410000000</v>
       </c>
-      <c r="L102" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="M102" s="46">
-        <f>M101/M103</f>
-        <v>1</v>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="M102" s="49" cm="1">
+        <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
+        <v>28206230121</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5138,15 +5491,21 @@
       <c r="E103" s="1">
         <v>625000000</v>
       </c>
-      <c r="L103" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="M103" s="50">
-        <f>M99+M101</f>
-        <v>32540692219</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="M103" s="46">
+        <f>M102/M104</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5162,12 +5521,23 @@
       <c r="E104" s="11">
         <v>1035000000</v>
       </c>
-      <c r="L104" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="M104" s="67"/>
-    </row>
-    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M104" s="50">
+        <f>M100+M102</f>
+        <v>28206230121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>161</v>
       </c>
@@ -5187,82 +5557,85 @@
         <f>(E22*(1-0.2))+E77+E88+E81</f>
         <v>288400000</v>
       </c>
-      <c r="F105" s="28">
-        <f>E105*(1+$M$106)</f>
-        <v>378765995.70718873</v>
-      </c>
-      <c r="G105" s="28">
-        <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
-        <v>497446877.61462593</v>
-      </c>
-      <c r="H105" s="28">
-        <f t="shared" si="11"/>
-        <v>653314708.4297359</v>
-      </c>
-      <c r="I105" s="28">
-        <f t="shared" si="11"/>
-        <v>858021484.21824062</v>
-      </c>
-      <c r="J105" s="28">
-        <f t="shared" si="11"/>
-        <v>1126870186.5744863</v>
-      </c>
-      <c r="K105" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="L105" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="M105" s="52">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>0.1077864</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F105" s="70">
+        <f>F107/F3</f>
+        <v>0.26857142857142857</v>
+      </c>
+      <c r="G105" s="70">
+        <f>G107/G3</f>
+        <v>0.34177679882525697</v>
+      </c>
+      <c r="H105" s="70">
+        <f>H107/H3</f>
+        <v>0.40334815589850903</v>
+      </c>
+      <c r="I105" s="70">
+        <f>I107/I3</f>
+        <v>0.45318618725525101</v>
+      </c>
+      <c r="J105" s="70">
+        <f>J107/J3</f>
+        <v>0.36418202121719712</v>
+      </c>
+      <c r="K105" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="L105" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="M105" s="75"/>
+    </row>
+    <row r="106" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:J106" si="11">(C107/B107)-1</f>
         <v>-0.296875</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="11"/>
         <v>1.5333333333333332</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="11"/>
         <v>-4.6052631578947345E-2</v>
       </c>
-      <c r="F106" s="38">
-        <v>659300000</v>
-      </c>
-      <c r="G106" s="38">
-        <v>1323000000</v>
-      </c>
-      <c r="H106" s="38">
-        <v>2227000000</v>
-      </c>
-      <c r="I106" s="38">
-        <v>3554000000</v>
-      </c>
-      <c r="J106" s="38">
-        <v>3676000000</v>
-      </c>
-      <c r="K106" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="L106" s="53" t="s">
-        <v>143</v>
+      <c r="F106" s="52">
+        <f t="shared" si="11"/>
+        <v>0.29655172413793096</v>
+      </c>
+      <c r="G106" s="52">
+        <f t="shared" si="11"/>
+        <v>0.65070921985815611</v>
+      </c>
+      <c r="H106" s="52">
+        <f t="shared" si="11"/>
+        <v>0.6562835660580022</v>
+      </c>
+      <c r="I106" s="52">
+        <f t="shared" si="11"/>
+        <v>0.65110246433203622</v>
+      </c>
+      <c r="J106" s="52">
+        <f t="shared" si="11"/>
+        <v>2.4744697564807572E-2</v>
+      </c>
+      <c r="K106" s="53">
+        <f>SUM(F106:J106)/5</f>
+        <v>0.45587833439018671</v>
+      </c>
+      <c r="L106" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="M106" s="54">
-        <f>(SUM(F4:J4)/5)</f>
-        <v>0.31333563005266563</v>
+        <f>(M101*M93)+(M103*M98)</f>
+        <v>0.1025394</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="35" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -5277,151 +5650,239 @@
       <c r="E107" s="1">
         <v>435000000</v>
       </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="39">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>45513514297.034286</v>
-      </c>
-      <c r="K107" s="30" t="s">
+      <c r="F107" s="55">
+        <v>564000000</v>
+      </c>
+      <c r="G107" s="55">
+        <v>931000000</v>
+      </c>
+      <c r="H107" s="55">
+        <v>1542000000</v>
+      </c>
+      <c r="I107" s="55">
+        <v>2546000000</v>
+      </c>
+      <c r="J107" s="55">
+        <v>2609000000</v>
+      </c>
+      <c r="K107" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="L107" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="M107" s="40">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.31378052389580879</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="57">
+        <f>J107*(1+M108)/(M109-M108)</f>
+        <v>34488595475.332535</v>
+      </c>
+      <c r="K108" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="55" t="s">
+      <c r="L108" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="M107" s="56">
+      <c r="M108" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="39">
-        <f t="shared" ref="F108:I108" si="12">F107+F106</f>
-        <v>659300000</v>
-      </c>
-      <c r="G108" s="39">
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F109" s="57">
+        <f t="shared" ref="F109:I109" si="12">F108+F107</f>
+        <v>564000000</v>
+      </c>
+      <c r="G109" s="57">
         <f t="shared" si="12"/>
-        <v>1323000000</v>
-      </c>
-      <c r="H108" s="39">
+        <v>931000000</v>
+      </c>
+      <c r="H109" s="57">
         <f t="shared" si="12"/>
-        <v>2227000000</v>
-      </c>
-      <c r="I108" s="39">
+        <v>1542000000</v>
+      </c>
+      <c r="I109" s="57">
         <f t="shared" si="12"/>
-        <v>3554000000</v>
-      </c>
-      <c r="J108" s="39">
-        <f>J107+J106</f>
-        <v>49189514297.034286</v>
-      </c>
-      <c r="K108" s="30" t="s">
+        <v>2546000000</v>
+      </c>
+      <c r="J109" s="57">
+        <f>J108+J107</f>
+        <v>37097595475.332535</v>
+      </c>
+      <c r="K109" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="L108" s="57" t="s">
+      <c r="L109" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="M108" s="54">
-        <f>M105</f>
-        <v>0.1077864</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="64" t="s">
+      <c r="M109" s="40">
+        <f>M106</f>
+        <v>0.1025394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F110" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="G109" s="64"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="58" t="s">
+      <c r="G110" s="76"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F111" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="G110" s="49">
-        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>35155671892.057938</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="58" t="s">
+      <c r="G111" s="49">
+        <f>NPV(M109,F109,G109,H109,I109,J109)</f>
+        <v>26921591578.436207</v>
+      </c>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+    </row>
+    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F112" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="G111" s="49">
+      <c r="G112" s="49">
         <f>E40</f>
         <v>1024000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="58" t="s">
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+    </row>
+    <row r="113" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F113" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="G112" s="49">
-        <f>M99</f>
+      <c r="G113" s="49">
+        <f>M100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="58" t="s">
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+    </row>
+    <row r="114" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F114" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="G113" s="49">
-        <f>G110+G111-G112</f>
-        <v>36179671892.057938</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="G114" s="58">
+      <c r="G114" s="49">
+        <f>G111+G112-G113</f>
+        <v>27945591578.436207</v>
+      </c>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="44"/>
+    </row>
+    <row r="115" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F115" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="G115" s="61">
         <f>E34*(1+(K16*5))</f>
         <v>795761905</v>
       </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="59" t="s">
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+    </row>
+    <row r="116" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F116" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="G115" s="60">
-        <f>G113/G114</f>
-        <v>45.465448477403477</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="58" t="s">
+      <c r="G116" s="63">
+        <f>G114/G115</f>
+        <v>35.118031414731028</v>
+      </c>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+    </row>
+    <row r="117" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F117" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="G116" s="61" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>40.39</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="59" t="s">
+      <c r="G117" s="64" cm="1">
+        <f t="array" ref="G117">_FV(A1,"Price")</f>
+        <v>35.01</v>
+      </c>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+    </row>
+    <row r="118" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F118" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G117" s="62">
-        <f>G115/G116-1</f>
-        <v>0.12566101701915011</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="59" t="s">
+      <c r="G118" s="65">
+        <f>G116/G117-1</f>
+        <v>3.085730212254445E-3</v>
+      </c>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+    </row>
+    <row r="119" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F119" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G118" s="63" t="str">
-        <f>IF(G115&gt;G116,"BUY","SELL")</f>
+      <c r="G119" s="66" t="str">
+        <f>IF(G116&gt;G117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="L83:M83"/>
+  <mergeCells count="7">
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="L94:M94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MBLY" display="ROIC.AI | MBLY" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5434,7 +5895,7 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1910139/000110465923030588/0001104659-23-030588-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1910139/000110465923030588/0001104659-23-030588-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:MBLY/explorer/revenue_proj" xr:uid="{8EC393B1-700E-914B-97F6-F454F3A17A39}"/>
-    <hyperlink ref="K106" r:id="rId11" xr:uid="{EAEFAA12-ED62-0342-99CF-65C6C584B1C2}"/>
+    <hyperlink ref="K107" r:id="rId11" xr:uid="{EAEFAA12-ED62-0342-99CF-65C6C584B1C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId12"/>

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93723CA4-1497-3547-A59D-9C244A1FB5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B45767-0B0C-6646-81F5-6EB8285DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2304,16 +2304,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2326,14 +2325,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2342,7 +2341,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2466,10 +2464,10 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>-0.84</v>
-    <v>-2.3431E-2</v>
-    <v>-0.2</v>
-    <v>-5.7130000000000002E-3</v>
+    <v>-1.37</v>
+    <v>-3.7616999999999998E-2</v>
+    <v>-0.05</v>
+    <v>-1.4269999999999999E-3</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2477,23 +2475,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>36.19</v>
+    <v>36.81</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45218.989855555468</v>
-    <v>34.304000000000002</v>
-    <v>28206230121</v>
+    <v>45226.971185185153</v>
+    <v>34.79</v>
+    <v>28238460000</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>35.799999999999997</v>
-    <v>35.85</v>
-    <v>35.01</v>
-    <v>34.81</v>
+    <v>36.58</v>
+    <v>36.42</v>
+    <v>35.049999999999997</v>
+    <v>35</v>
     <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>1802254</v>
-    <v>2835919</v>
+    <v>2904299</v>
+    <v>2568118</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2644,9 +2642,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3057,10 +3055,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3572,15 +3570,15 @@
       </c>
       <c r="L16" s="33">
         <f>M102/E3</f>
-        <v>15.091615902086678</v>
+        <v>15.108860353130016</v>
       </c>
       <c r="M16" s="33">
         <f>M102/E28</f>
-        <v>-343.9784161097561</v>
+        <v>-344.37146341463415</v>
       </c>
       <c r="N16" s="34">
         <f>M102/E107</f>
-        <v>64.841908324137933</v>
+        <v>64.915999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3666,15 +3664,15 @@
       </c>
       <c r="L19" s="33">
         <f>M102/F3</f>
-        <v>13.431538152857144</v>
+        <v>13.446885714285715</v>
       </c>
       <c r="M19" s="33">
         <f>M102/F28</f>
-        <v>49.311591120629373</v>
+        <v>49.36793706293706</v>
       </c>
       <c r="N19" s="34">
         <f>M102/F107</f>
-        <v>50.011046313829787</v>
+        <v>50.068191489361702</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3783,11 +3781,11 @@
       </c>
       <c r="M22" s="42">
         <f>(-1*E98)/M102</f>
-        <v>1.1947715045730199E-2</v>
+        <v>1.1934078558108338E-2</v>
       </c>
       <c r="N22" s="36">
         <f>F107/M102</f>
-        <v>1.9995582450420865E-2</v>
+        <v>1.9972760554222858E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5267,7 +5265,7 @@
       </c>
       <c r="M95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5355,7 +5353,7 @@
       </c>
       <c r="M98" s="46">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.1025394</v>
+        <v>0.1028415</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5472,7 +5470,7 @@
       </c>
       <c r="M102" s="49" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>28206230121</v>
+        <v>28238460000</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5534,7 +5532,7 @@
       </c>
       <c r="M104" s="50">
         <f>M100+M102</f>
-        <v>28206230121</v>
+        <v>28238460000</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5631,7 +5629,7 @@
       </c>
       <c r="M106" s="54">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.1025394</v>
+        <v>0.1028415</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5683,7 +5681,7 @@
       <c r="I108" s="72"/>
       <c r="J108" s="57">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>34488595475.332535</v>
+        <v>34354746504.114124</v>
       </c>
       <c r="K108" s="58" t="s">
         <v>144</v>
@@ -5714,7 +5712,7 @@
       </c>
       <c r="J109" s="57">
         <f>J108+J107</f>
-        <v>37097595475.332535</v>
+        <v>36963746504.11412</v>
       </c>
       <c r="K109" s="58" t="s">
         <v>141</v>
@@ -5724,7 +5722,7 @@
       </c>
       <c r="M109" s="40">
         <f>M106</f>
-        <v>0.1025394</v>
+        <v>0.1028415</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -5745,7 +5743,7 @@
       </c>
       <c r="G111" s="49">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>26921591578.436207</v>
+        <v>26804984457.491798</v>
       </c>
       <c r="H111" s="44"/>
       <c r="I111" s="44"/>
@@ -5790,7 +5788,7 @@
       </c>
       <c r="G114" s="49">
         <f>G111+G112-G113</f>
-        <v>27945591578.436207</v>
+        <v>27828984457.491798</v>
       </c>
       <c r="H114" s="44"/>
       <c r="I114" s="44"/>
@@ -5820,7 +5818,7 @@
       </c>
       <c r="G116" s="63">
         <f>G114/G115</f>
-        <v>35.118031414731028</v>
+        <v>34.971496225987089</v>
       </c>
       <c r="H116" s="44"/>
       <c r="I116" s="44"/>
@@ -5835,7 +5833,7 @@
       </c>
       <c r="G117" s="64" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>35.01</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="H117" s="44"/>
       <c r="I117" s="44"/>
@@ -5850,7 +5848,7 @@
       </c>
       <c r="G118" s="65">
         <f>G116/G117-1</f>
-        <v>3.085730212254445E-3</v>
+        <v>-2.2397653070730383E-3</v>
       </c>
       <c r="H118" s="44"/>
       <c r="I118" s="44"/>
@@ -5865,7 +5863,7 @@
       </c>
       <c r="G119" s="66" t="str">
         <f>IF(G116&gt;G117,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
       <c r="H119" s="44"/>
       <c r="I119" s="44"/>

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B45767-0B0C-6646-81F5-6EB8285DEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254F0EF4-2A99-E046-BC16-18453B7AD7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2309,10 +2309,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2329,7 +2329,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.6689999999999995E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2464,10 +2464,10 @@
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
     <v>24.85</v>
-    <v>-1.37</v>
-    <v>-3.7616999999999998E-2</v>
-    <v>-0.05</v>
-    <v>-1.4269999999999999E-3</v>
+    <v>0.35</v>
+    <v>9.6020000000000012E-3</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.902E-3</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2475,23 +2475,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>36.81</v>
+    <v>38.07</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45226.971185185153</v>
-    <v>34.79</v>
-    <v>28238460000</v>
+    <v>45233.996114478905</v>
+    <v>36.15</v>
+    <v>29648370000</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>36.58</v>
-    <v>36.42</v>
-    <v>35.049999999999997</v>
-    <v>35</v>
+    <v>37.869999999999997</v>
+    <v>36.450000000000003</v>
+    <v>36.799999999999997</v>
+    <v>36.869999999999997</v>
     <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>2904299</v>
-    <v>2568118</v>
+    <v>2130516</v>
+    <v>2628130</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2642,9 +2642,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3055,10 +3055,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3570,15 +3570,15 @@
       </c>
       <c r="L16" s="33">
         <f>M102/E3</f>
-        <v>15.108860353130016</v>
+        <v>15.86322632423756</v>
       </c>
       <c r="M16" s="33">
         <f>M102/E28</f>
-        <v>-344.37146341463415</v>
+        <v>-361.56548780487805</v>
       </c>
       <c r="N16" s="34">
         <f>M102/E107</f>
-        <v>64.915999999999997</v>
+        <v>68.157172413793106</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3664,15 +3664,15 @@
       </c>
       <c r="L19" s="33">
         <f>M102/F3</f>
-        <v>13.446885714285715</v>
+        <v>14.118271428571429</v>
       </c>
       <c r="M19" s="33">
         <f>M102/F28</f>
-        <v>49.36793706293706</v>
+        <v>51.832814685314688</v>
       </c>
       <c r="N19" s="34">
         <f>M102/F107</f>
-        <v>50.068191489361702</v>
+        <v>52.568031914893616</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,11 +3781,11 @@
       </c>
       <c r="M22" s="42">
         <f>(-1*E98)/M102</f>
-        <v>1.1934078558108338E-2</v>
+        <v>1.1366560792380829E-2</v>
       </c>
       <c r="N22" s="36">
         <f>F107/M102</f>
-        <v>1.9972760554222858E-2</v>
+        <v>1.902296821039403E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="M95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.6689999999999995E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="M98" s="46">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.1028415</v>
+        <v>0.10377430000000001</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="M102" s="49" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>28238460000</v>
+        <v>29648370000</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="M104" s="50">
         <f>M100+M102</f>
-        <v>28238460000</v>
+        <v>29648370000</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="M106" s="54">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.1028415</v>
+        <v>0.10377430000000001</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5681,7 +5681,7 @@
       <c r="I108" s="72"/>
       <c r="J108" s="57">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>34354746504.114124</v>
+        <v>33947937334.892208</v>
       </c>
       <c r="K108" s="58" t="s">
         <v>144</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="J109" s="57">
         <f>J108+J107</f>
-        <v>36963746504.11412</v>
+        <v>36556937334.892212</v>
       </c>
       <c r="K109" s="58" t="s">
         <v>141</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="M109" s="40">
         <f>M106</f>
-        <v>0.1028415</v>
+        <v>0.10377430000000001</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="G111" s="49">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>26804984457.491798</v>
+        <v>26450651781.093983</v>
       </c>
       <c r="H111" s="44"/>
       <c r="I111" s="44"/>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="G114" s="49">
         <f>G111+G112-G113</f>
-        <v>27828984457.491798</v>
+        <v>27474651781.093983</v>
       </c>
       <c r="H114" s="44"/>
       <c r="I114" s="44"/>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="G116" s="63">
         <f>G114/G115</f>
-        <v>34.971496225987089</v>
+        <v>34.526221484671325</v>
       </c>
       <c r="H116" s="44"/>
       <c r="I116" s="44"/>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="G117" s="64" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>35.049999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="H117" s="44"/>
       <c r="I117" s="44"/>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="G118" s="65">
         <f>G116/G117-1</f>
-        <v>-2.2397653070730383E-3</v>
+        <v>-6.1787459655670451E-2</v>
       </c>
       <c r="H118" s="44"/>
       <c r="I118" s="44"/>

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254F0EF4-2A99-E046-BC16-18453B7AD7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0D49B2-BDD3-EF43-BD99-7C5713225CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2329,7 +2329,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2463,11 +2463,11 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
-    <v>24.85</v>
-    <v>0.35</v>
-    <v>9.6020000000000012E-3</v>
-    <v>7.0000000000000007E-2</v>
-    <v>1.902E-3</v>
+    <v>25.704999999999998</v>
+    <v>-0.52</v>
+    <v>-1.4184E-2</v>
+    <v>-0.13</v>
+    <v>-3.5970000000000004E-3</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -2475,23 +2475,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>38.07</v>
+    <v>37.274999999999999</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45233.996114478905</v>
-    <v>36.15</v>
-    <v>29648370000</v>
+    <v>45239.957246307815</v>
+    <v>35.99</v>
+    <v>29116628294</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>37.869999999999997</v>
-    <v>36.450000000000003</v>
-    <v>36.799999999999997</v>
-    <v>36.869999999999997</v>
+    <v>37.04</v>
+    <v>36.659999999999997</v>
+    <v>36.14</v>
+    <v>36.01</v>
     <v>805662100</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>2130516</v>
-    <v>2628130</v>
+    <v>1325509</v>
+    <v>2570233</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -3055,10 +3055,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E127" sqref="E127"/>
+      <selection pane="bottomRight" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3570,15 +3570,15 @@
       </c>
       <c r="L16" s="33">
         <f>M102/E3</f>
-        <v>15.86322632423756</v>
+        <v>15.578720328517925</v>
       </c>
       <c r="M16" s="33">
         <f>M102/E28</f>
-        <v>-361.56548780487805</v>
+        <v>-355.08083285365853</v>
       </c>
       <c r="N16" s="34">
         <f>M102/E107</f>
-        <v>68.157172413793106</v>
+        <v>66.934777687356316</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3664,15 +3664,15 @@
       </c>
       <c r="L19" s="33">
         <f>M102/F3</f>
-        <v>14.118271428571429</v>
+        <v>13.865061092380952</v>
       </c>
       <c r="M19" s="33">
         <f>M102/F28</f>
-        <v>51.832814685314688</v>
+        <v>50.90319631818182</v>
       </c>
       <c r="N19" s="34">
         <f>M102/F107</f>
-        <v>52.568031914893616</v>
+        <v>51.625227471631206</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,11 +3781,11 @@
       </c>
       <c r="M22" s="42">
         <f>(-1*E98)/M102</f>
-        <v>1.1366560792380829E-2</v>
+        <v>1.1574142328473E-2</v>
       </c>
       <c r="N22" s="36">
         <f>F107/M102</f>
-        <v>1.902296821039403E-2</v>
+        <v>1.9370374698097246E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="M95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="M98" s="46">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.10377430000000001</v>
+        <v>0.10429370000000002</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="M102" s="49" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>29648370000</v>
+        <v>29116628294</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="M104" s="50">
         <f>M100+M102</f>
-        <v>29648370000</v>
+        <v>29116628294</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="M106" s="54">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.10377430000000001</v>
+        <v>0.10429370000000002</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5681,7 +5681,7 @@
       <c r="I108" s="72"/>
       <c r="J108" s="57">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>33947937334.892208</v>
+        <v>33725567100.538872</v>
       </c>
       <c r="K108" s="58" t="s">
         <v>144</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="J109" s="57">
         <f>J108+J107</f>
-        <v>36556937334.892212</v>
+        <v>36334567100.538872</v>
       </c>
       <c r="K109" s="58" t="s">
         <v>141</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="M109" s="40">
         <f>M106</f>
-        <v>0.10377430000000001</v>
+        <v>0.10429370000000002</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="G111" s="49">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>26450651781.093983</v>
+        <v>26257013696.503162</v>
       </c>
       <c r="H111" s="44"/>
       <c r="I111" s="44"/>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="G114" s="49">
         <f>G111+G112-G113</f>
-        <v>27474651781.093983</v>
+        <v>27281013696.503162</v>
       </c>
       <c r="H114" s="44"/>
       <c r="I114" s="44"/>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="G116" s="63">
         <f>G114/G115</f>
-        <v>34.526221484671325</v>
+        <v>34.282884773810785</v>
       </c>
       <c r="H116" s="44"/>
       <c r="I116" s="44"/>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="G117" s="64" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>36.799999999999997</v>
+        <v>36.14</v>
       </c>
       <c r="H117" s="44"/>
       <c r="I117" s="44"/>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="G118" s="65">
         <f>G116/G117-1</f>
-        <v>-6.1787459655670451E-2</v>
+        <v>-5.1386696906176366E-2</v>
       </c>
       <c r="H118" s="44"/>
       <c r="I118" s="44"/>

--- a/Technology/Hardware/Mobileye.xlsx
+++ b/Technology/Hardware/Mobileye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB22513-ADDF-394D-AD23-FD3357CAE1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1EEF99-CADF-0844-BF02-FF6B8EAF0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1652,7 +1652,7 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1685,7 +1685,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -1728,6 +1728,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1747,7 +1749,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1760,6 +1762,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1882,11 +1886,11 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>48.11</v>
-    <v>28.41</v>
-    <v>-1.78</v>
-    <v>-4.3361999999999998E-2</v>
-    <v>0.04</v>
-    <v>1.0189999999999999E-3</v>
+    <v>28.726500000000001</v>
+    <v>-0.01</v>
+    <v>-2.4860000000000003E-4</v>
+    <v>1.5</v>
+    <v>3.7303999999999997E-2</v>
     <v>USD</v>
     <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
     <v>3500</v>
@@ -1894,23 +1898,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Har Hotzvim, 13 Hartom Street, P.O. Box 45157, JERUSALEM, 97775 IL</v>
-    <v>40.973999999999997</v>
+    <v>41.98</v>
     <v>Integrated Hardware &amp; Software</v>
     <v>Stock</v>
-    <v>45262.029726203124</v>
-    <v>39.18</v>
-    <v>31657430000</v>
+    <v>45268.995058008593</v>
+    <v>40.11</v>
+    <v>32415207059</v>
     <v>MOBILEYE GLOBAL INC.</v>
     <v>MOBILEYE GLOBAL INC.</v>
-    <v>40.69</v>
-    <v>41.05</v>
-    <v>39.270000000000003</v>
-    <v>39.31</v>
+    <v>40.619999999999997</v>
+    <v>40.22</v>
+    <v>40.21</v>
+    <v>41.71</v>
     <v>806147900</v>
     <v>MBLY</v>
     <v>MOBILEYE GLOBAL INC. (XNAS:MBLY)</v>
-    <v>2726041</v>
-    <v>1864293</v>
+    <v>5743632</v>
+    <v>1625541</v>
     <v>2022</v>
   </rv>
   <rv s="1">
@@ -2498,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="B188" sqref="B188:E188"/>
     </sheetView>
   </sheetViews>
@@ -8733,8 +8737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5150A5ED-CACC-9745-AF44-3F580637D79B}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8806,15 +8810,15 @@
         <v>194</v>
       </c>
       <c r="G3" s="40">
-        <f>AVERAGE(Financials!E129:J129)</f>
-        <v>2.0848826111175556E-3</v>
+        <f>AVERAGE(Financials!C129:J129)</f>
+        <v>1.5636619583381667E-3</v>
       </c>
       <c r="H3" s="39" t="s">
         <v>195</v>
       </c>
       <c r="I3" s="41">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>32188090229.978447</v>
+        <v>31962191975.852398</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>196</v>
@@ -8859,21 +8863,21 @@
       </c>
       <c r="G4" s="50">
         <f>A5*(1+(5*G3))</f>
-        <v>814060553.47119093</v>
+        <v>811960915.1033932</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>202</v>
       </c>
       <c r="I4" s="51">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>25039940814.073746</v>
+        <v>24843163670.461693</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="52" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-4.3361999999999998E-2</v>
+        <v>-2.4860000000000003E-4</v>
       </c>
       <c r="L4" s="53" t="s">
         <v>204</v>
@@ -8918,14 +8922,14 @@
       </c>
       <c r="I5" s="51">
         <f>I4+G5-G6</f>
-        <v>22661940814.073746</v>
+        <v>22465163670.461693</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>39.270000000000003</v>
+        <v>40.21</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>211</v>
@@ -8973,14 +8977,14 @@
       </c>
       <c r="I6" s="52">
         <f>N25</f>
-        <v>8.8369711760664646E-2</v>
+        <v>8.8817588028413122E-2</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="60">
         <f>I5/G4</f>
-        <v>27.838151249857528</v>
+        <v>27.66778948664177</v>
       </c>
       <c r="L6" s="61" t="s">
         <v>217</v>
@@ -9034,7 +9038,7 @@
       </c>
       <c r="K7" s="70">
         <f>K6/K5-1</f>
-        <v>-0.29110895722287944</v>
+        <v>-0.31191769493554422</v>
       </c>
       <c r="L7" s="71" t="s">
         <v>223</v>
@@ -9361,7 +9365,7 @@
       </c>
       <c r="O14" s="90">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
@@ -9513,7 +9517,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
@@ -9633,14 +9637,14 @@
       <c r="R21" s="45"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="112" t="str" cm="1">
+      <c r="A22" s="123" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Mobileye Global Inc is an Israel-based company that is primarily actives in field of development and deployment of advanced driver-assistance systems (ADAS) and self-driving system (AV). Company's portfolio Mobileye’s of solutions is built upon a purpose-built software and hardware technologies designed to provide the capabilities to make advanced driver-assistance systems and autonomous driving a reality. These technologies are dedicated to deliver capabilities of advancing the safety of road users, and improving the driving experience and the movement of people and goods globally. The Company's offerings include Driver Assist, Cloud-Enhanced Driver Assist, Mobileye SuperVision Lite, Mobileye Chauffeur, and Mobileye Drive. Mobileye Global Inc operates globally.</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
       <c r="F22" s="73"/>
       <c r="G22" s="73"/>
       <c r="H22" s="73"/>
@@ -9661,11 +9665,11 @@
       <c r="R22" s="45"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
@@ -9686,11 +9690,11 @@
       <c r="R23" s="45"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="73"/>
       <c r="G24" s="73"/>
       <c r="H24" s="73"/>
@@ -9708,11 +9712,11 @@
       <c r="R24" s="45"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
       <c r="H25" s="73"/>
@@ -9723,7 +9727,7 @@
       <c r="M25" s="73"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8369711760664646E-2</v>
+        <v>8.8817588028413122E-2</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="45"/>
@@ -9731,11 +9735,11 @@
       <c r="R25" s="45"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
       <c r="H26" s="73"/>
@@ -9751,11 +9755,11 @@
       <c r="R26" s="45"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="73"/>
       <c r="G27" s="73"/>
       <c r="H27" s="73"/>
@@ -9771,11 +9775,11 @@
       <c r="R27" s="45"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="73"/>
       <c r="G28" s="73"/>
       <c r="H28" s="73"/>
@@ -9791,11 +9795,11 @@
       <c r="R28" s="45"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
       <c r="F29" s="73"/>
       <c r="G29" s="73"/>
       <c r="H29" s="73"/>
@@ -9811,11 +9815,11 @@
       <c r="R29" s="45"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
       <c r="H30" s="73"/>
